--- a/pred_ohlcv/54/2019-10-19 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 BTG ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:I277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -411,21 +416,24 @@
         <v>9175</v>
       </c>
       <c r="C2" t="n">
-        <v>9225</v>
+        <v>9175</v>
       </c>
       <c r="D2" t="n">
-        <v>9225</v>
+        <v>9175</v>
       </c>
       <c r="E2" t="n">
         <v>9175</v>
       </c>
       <c r="F2" t="n">
-        <v>5.0893</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>9210</v>
+        <v>9211.5</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>9175</v>
       </c>
       <c r="C3" t="n">
-        <v>9175</v>
+        <v>9225</v>
       </c>
       <c r="D3" t="n">
-        <v>9175</v>
+        <v>9225</v>
       </c>
       <c r="E3" t="n">
         <v>9175</v>
       </c>
       <c r="F3" t="n">
-        <v>116</v>
+        <v>5.0893</v>
       </c>
       <c r="G3" t="n">
-        <v>9207.75</v>
+        <v>9210</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9190</v>
+        <v>9175</v>
       </c>
       <c r="C4" t="n">
         <v>9175</v>
       </c>
       <c r="D4" t="n">
-        <v>9190</v>
+        <v>9175</v>
       </c>
       <c r="E4" t="n">
         <v>9175</v>
       </c>
       <c r="F4" t="n">
-        <v>18.1775</v>
+        <v>116</v>
       </c>
       <c r="G4" t="n">
-        <v>9205.666666666666</v>
+        <v>9207.75</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9175</v>
+        <v>9190</v>
       </c>
       <c r="C5" t="n">
         <v>9175</v>
       </c>
       <c r="D5" t="n">
-        <v>9175</v>
+        <v>9190</v>
       </c>
       <c r="E5" t="n">
         <v>9175</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>18.1775</v>
       </c>
       <c r="G5" t="n">
-        <v>9203.583333333334</v>
+        <v>9205.666666666666</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9190</v>
+        <v>9175</v>
       </c>
       <c r="C6" t="n">
         <v>9175</v>
       </c>
       <c r="D6" t="n">
-        <v>9190</v>
+        <v>9175</v>
       </c>
       <c r="E6" t="n">
         <v>9175</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>9201.5</v>
+        <v>9203.583333333334</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9180</v>
+        <v>9190</v>
       </c>
       <c r="C7" t="n">
-        <v>9180</v>
+        <v>9175</v>
       </c>
       <c r="D7" t="n">
-        <v>9180</v>
+        <v>9190</v>
       </c>
       <c r="E7" t="n">
-        <v>9180</v>
+        <v>9175</v>
       </c>
       <c r="F7" t="n">
-        <v>6.1775</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>9199.5</v>
+        <v>9201.5</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9175</v>
+        <v>9180</v>
       </c>
       <c r="C8" t="n">
-        <v>9175</v>
+        <v>9180</v>
       </c>
       <c r="D8" t="n">
-        <v>9175</v>
+        <v>9180</v>
       </c>
       <c r="E8" t="n">
-        <v>9175</v>
+        <v>9180</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>6.1775</v>
       </c>
       <c r="G8" t="n">
-        <v>9197.416666666666</v>
+        <v>9199.5</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="C9" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="D9" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="E9" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="F9" t="n">
-        <v>40.2458</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>9195.25</v>
+        <v>9197.416666666666</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9190</v>
+        <v>9170</v>
       </c>
       <c r="C10" t="n">
-        <v>9180</v>
+        <v>9170</v>
       </c>
       <c r="D10" t="n">
-        <v>9190</v>
+        <v>9170</v>
       </c>
       <c r="E10" t="n">
-        <v>9180</v>
+        <v>9170</v>
       </c>
       <c r="F10" t="n">
-        <v>103</v>
+        <v>40.2458</v>
       </c>
       <c r="G10" t="n">
-        <v>9194.166666666666</v>
+        <v>9195.25</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9190</v>
+      </c>
+      <c r="C11" t="n">
         <v>9180</v>
       </c>
-      <c r="C11" t="n">
-        <v>9170</v>
-      </c>
       <c r="D11" t="n">
+        <v>9190</v>
+      </c>
+      <c r="E11" t="n">
         <v>9180</v>
       </c>
-      <c r="E11" t="n">
-        <v>9170</v>
-      </c>
       <c r="F11" t="n">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="G11" t="n">
-        <v>9192.916666666666</v>
+        <v>9194.166666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9170</v>
+        <v>9180</v>
       </c>
       <c r="C12" t="n">
         <v>9170</v>
       </c>
       <c r="D12" t="n">
-        <v>9170</v>
+        <v>9180</v>
       </c>
       <c r="E12" t="n">
         <v>9170</v>
       </c>
       <c r="F12" t="n">
-        <v>29.5</v>
+        <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>9191.666666666666</v>
+        <v>9192.916666666666</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>9170</v>
       </c>
       <c r="C13" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="D13" t="n">
         <v>9170</v>
       </c>
       <c r="E13" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="F13" t="n">
-        <v>33</v>
+        <v>29.5</v>
       </c>
       <c r="G13" t="n">
-        <v>9190.333333333334</v>
+        <v>9191.666666666666</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="C14" t="n">
         <v>9165</v>
       </c>
       <c r="D14" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="E14" t="n">
         <v>9165</v>
       </c>
       <c r="F14" t="n">
-        <v>67.5</v>
+        <v>33</v>
       </c>
       <c r="G14" t="n">
-        <v>9189</v>
+        <v>9190.333333333334</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>9165</v>
       </c>
       <c r="C15" t="n">
-        <v>9150</v>
+        <v>9165</v>
       </c>
       <c r="D15" t="n">
         <v>9165</v>
       </c>
       <c r="E15" t="n">
-        <v>9150</v>
+        <v>9165</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>67.5</v>
       </c>
       <c r="G15" t="n">
-        <v>9187.416666666666</v>
+        <v>9189</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9155</v>
+        <v>9165</v>
       </c>
       <c r="C16" t="n">
-        <v>9155</v>
+        <v>9150</v>
       </c>
       <c r="D16" t="n">
-        <v>9155</v>
+        <v>9165</v>
       </c>
       <c r="E16" t="n">
-        <v>9155</v>
+        <v>9150</v>
       </c>
       <c r="F16" t="n">
-        <v>189.7971</v>
+        <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>9185.916666666666</v>
+        <v>9187.416666666666</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>9155</v>
       </c>
       <c r="C17" t="n">
-        <v>9150</v>
+        <v>9155</v>
       </c>
       <c r="D17" t="n">
         <v>9155</v>
       </c>
       <c r="E17" t="n">
-        <v>9150</v>
+        <v>9155</v>
       </c>
       <c r="F17" t="n">
-        <v>65.5</v>
+        <v>189.7971</v>
       </c>
       <c r="G17" t="n">
-        <v>9184.333333333334</v>
+        <v>9185.916666666666</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>9155</v>
+      </c>
+      <c r="C18" t="n">
         <v>9150</v>
       </c>
-      <c r="C18" t="n">
-        <v>9140</v>
-      </c>
       <c r="D18" t="n">
+        <v>9155</v>
+      </c>
+      <c r="E18" t="n">
         <v>9150</v>
       </c>
-      <c r="E18" t="n">
-        <v>9140</v>
-      </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>65.5</v>
       </c>
       <c r="G18" t="n">
-        <v>9182.583333333334</v>
+        <v>9184.333333333334</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,13 +906,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9140</v>
+        <v>9150</v>
       </c>
       <c r="C19" t="n">
         <v>9140</v>
       </c>
       <c r="D19" t="n">
-        <v>9140</v>
+        <v>9150</v>
       </c>
       <c r="E19" t="n">
         <v>9140</v>
@@ -865,9 +921,12 @@
         <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>9180.833333333334</v>
+        <v>9182.583333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>9140</v>
       </c>
       <c r="F20" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>9179.5</v>
+        <v>9180.833333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>9140</v>
       </c>
       <c r="F21" t="n">
-        <v>35.5</v>
+        <v>97</v>
       </c>
       <c r="G21" t="n">
-        <v>9178.333333333334</v>
+        <v>9179.5</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="C22" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="D22" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="E22" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="F22" t="n">
-        <v>72</v>
+        <v>35.5</v>
       </c>
       <c r="G22" t="n">
-        <v>9177.25</v>
+        <v>9178.333333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,21 +1025,24 @@
         <v>9145</v>
       </c>
       <c r="C23" t="n">
-        <v>9135</v>
+        <v>9145</v>
       </c>
       <c r="D23" t="n">
         <v>9145</v>
       </c>
       <c r="E23" t="n">
-        <v>9135</v>
+        <v>9145</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G23" t="n">
-        <v>9176</v>
+        <v>9177.25</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9135</v>
+        <v>9145</v>
       </c>
       <c r="C24" t="n">
         <v>9135</v>
       </c>
       <c r="D24" t="n">
-        <v>9135</v>
+        <v>9145</v>
       </c>
       <c r="E24" t="n">
         <v>9135</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>9174.75</v>
+        <v>9176</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9145</v>
+        <v>9135</v>
       </c>
       <c r="C25" t="n">
         <v>9135</v>
       </c>
       <c r="D25" t="n">
-        <v>9145</v>
+        <v>9135</v>
       </c>
       <c r="E25" t="n">
-        <v>9130</v>
+        <v>9135</v>
       </c>
       <c r="F25" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>9173.583333333334</v>
+        <v>9174.75</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>9145</v>
+      </c>
+      <c r="C26" t="n">
         <v>9135</v>
       </c>
-      <c r="C26" t="n">
-        <v>9130</v>
-      </c>
       <c r="D26" t="n">
-        <v>9135</v>
+        <v>9145</v>
       </c>
       <c r="E26" t="n">
         <v>9130</v>
       </c>
       <c r="F26" t="n">
-        <v>64.5</v>
+        <v>70</v>
       </c>
       <c r="G26" t="n">
-        <v>9172.416666666666</v>
+        <v>9173.583333333334</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9130</v>
+        <v>9135</v>
       </c>
       <c r="C27" t="n">
         <v>9130</v>
       </c>
       <c r="D27" t="n">
-        <v>9130</v>
+        <v>9135</v>
       </c>
       <c r="E27" t="n">
         <v>9130</v>
       </c>
       <c r="F27" t="n">
-        <v>133</v>
+        <v>64.5</v>
       </c>
       <c r="G27" t="n">
-        <v>9171.583333333334</v>
+        <v>9172.416666666666</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>9130</v>
       </c>
       <c r="F28" t="n">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="G28" t="n">
-        <v>9170.75</v>
+        <v>9171.583333333334</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>9130</v>
       </c>
       <c r="C29" t="n">
-        <v>9120</v>
+        <v>9130</v>
       </c>
       <c r="D29" t="n">
         <v>9130</v>
       </c>
       <c r="E29" t="n">
-        <v>9120</v>
+        <v>9130</v>
       </c>
       <c r="F29" t="n">
-        <v>34.5</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>9169.833333333334</v>
+        <v>9170.75</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9120</v>
+        <v>9130</v>
       </c>
       <c r="C30" t="n">
         <v>9120</v>
       </c>
       <c r="D30" t="n">
-        <v>9120</v>
+        <v>9130</v>
       </c>
       <c r="E30" t="n">
         <v>9120</v>
       </c>
       <c r="F30" t="n">
-        <v>68</v>
+        <v>34.5</v>
       </c>
       <c r="G30" t="n">
-        <v>9168.5</v>
+        <v>9169.833333333334</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>9120</v>
       </c>
       <c r="F31" t="n">
-        <v>31.1611</v>
+        <v>68</v>
       </c>
       <c r="G31" t="n">
-        <v>9166.583333333334</v>
+        <v>9168.5</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9335</v>
+        <v>9120</v>
       </c>
       <c r="C32" t="n">
-        <v>9345</v>
+        <v>9120</v>
       </c>
       <c r="D32" t="n">
-        <v>9345</v>
+        <v>9120</v>
       </c>
       <c r="E32" t="n">
-        <v>9335</v>
+        <v>9120</v>
       </c>
       <c r="F32" t="n">
-        <v>106.95552835</v>
+        <v>31.1611</v>
       </c>
       <c r="G32" t="n">
-        <v>9168.5</v>
+        <v>9166.583333333334</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9125</v>
+        <v>9335</v>
       </c>
       <c r="C33" t="n">
-        <v>9125</v>
+        <v>9345</v>
       </c>
       <c r="D33" t="n">
-        <v>9125</v>
+        <v>9345</v>
       </c>
       <c r="E33" t="n">
-        <v>9125</v>
+        <v>9335</v>
       </c>
       <c r="F33" t="n">
-        <v>2.9</v>
+        <v>106.95552835</v>
       </c>
       <c r="G33" t="n">
-        <v>9166</v>
+        <v>9168.5</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,25 +1341,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9130</v>
+        <v>9125</v>
       </c>
       <c r="C34" t="n">
         <v>9125</v>
       </c>
       <c r="D34" t="n">
-        <v>9130</v>
+        <v>9125</v>
       </c>
       <c r="E34" t="n">
         <v>9125</v>
       </c>
       <c r="F34" t="n">
-        <v>33</v>
+        <v>2.9</v>
       </c>
       <c r="G34" t="n">
-        <v>9164.416666666666</v>
+        <v>9166</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1269,21 +1373,24 @@
         <v>9130</v>
       </c>
       <c r="C35" t="n">
-        <v>9120</v>
+        <v>9125</v>
       </c>
       <c r="D35" t="n">
         <v>9130</v>
       </c>
       <c r="E35" t="n">
-        <v>9120</v>
+        <v>9125</v>
       </c>
       <c r="F35" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G35" t="n">
-        <v>9163.416666666666</v>
+        <v>9164.416666666666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9210</v>
+        <v>9130</v>
       </c>
       <c r="C36" t="n">
-        <v>9210</v>
+        <v>9120</v>
       </c>
       <c r="D36" t="n">
-        <v>9210</v>
+        <v>9130</v>
       </c>
       <c r="E36" t="n">
-        <v>9210</v>
+        <v>9120</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5</v>
+        <v>35</v>
       </c>
       <c r="G36" t="n">
-        <v>9163.75</v>
+        <v>9163.416666666666</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9125</v>
+        <v>9210</v>
       </c>
       <c r="C37" t="n">
-        <v>9110</v>
+        <v>9210</v>
       </c>
       <c r="D37" t="n">
-        <v>9125</v>
+        <v>9210</v>
       </c>
       <c r="E37" t="n">
-        <v>9110</v>
+        <v>9210</v>
       </c>
       <c r="F37" t="n">
-        <v>48</v>
+        <v>0.5</v>
       </c>
       <c r="G37" t="n">
-        <v>9162.583333333334</v>
+        <v>9163.75</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9110</v>
+        <v>9125</v>
       </c>
       <c r="C38" t="n">
         <v>9110</v>
       </c>
       <c r="D38" t="n">
-        <v>9110</v>
+        <v>9125</v>
       </c>
       <c r="E38" t="n">
         <v>9110</v>
       </c>
       <c r="F38" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G38" t="n">
-        <v>9161.25</v>
+        <v>9162.583333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1489,24 @@
         <v>9110</v>
       </c>
       <c r="C39" t="n">
-        <v>9105</v>
+        <v>9110</v>
       </c>
       <c r="D39" t="n">
         <v>9110</v>
       </c>
       <c r="E39" t="n">
-        <v>9105</v>
+        <v>9110</v>
       </c>
       <c r="F39" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="G39" t="n">
-        <v>9159.916666666666</v>
+        <v>9161.25</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9115</v>
+        <v>9110</v>
       </c>
       <c r="C40" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D40" t="n">
-        <v>9115</v>
+        <v>9110</v>
       </c>
       <c r="E40" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="F40" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
-        <v>9158.583333333334</v>
+        <v>9159.916666666666</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="C41" t="n">
-        <v>9175</v>
+        <v>9100</v>
       </c>
       <c r="D41" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="E41" t="n">
-        <v>9175</v>
+        <v>9100</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0943</v>
+        <v>14</v>
       </c>
       <c r="G41" t="n">
-        <v>9158.333333333334</v>
+        <v>9158.583333333334</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9200</v>
+        <v>9175</v>
       </c>
       <c r="C42" t="n">
-        <v>9205</v>
+        <v>9175</v>
       </c>
       <c r="D42" t="n">
-        <v>9210</v>
+        <v>9175</v>
       </c>
       <c r="E42" t="n">
-        <v>9200</v>
+        <v>9175</v>
       </c>
       <c r="F42" t="n">
-        <v>12.4762</v>
+        <v>1.0943</v>
       </c>
       <c r="G42" t="n">
-        <v>9158.666666666666</v>
+        <v>9158.333333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="C43" t="n">
-        <v>9220</v>
+        <v>9205</v>
       </c>
       <c r="D43" t="n">
-        <v>9220</v>
+        <v>9210</v>
       </c>
       <c r="E43" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4869</v>
+        <v>12.4762</v>
       </c>
       <c r="G43" t="n">
-        <v>9159.333333333334</v>
+        <v>9158.666666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9195</v>
+        <v>9220</v>
       </c>
       <c r="C44" t="n">
-        <v>9190</v>
+        <v>9220</v>
       </c>
       <c r="D44" t="n">
-        <v>9195</v>
+        <v>9220</v>
       </c>
       <c r="E44" t="n">
-        <v>9190</v>
+        <v>9220</v>
       </c>
       <c r="F44" t="n">
-        <v>23.9976</v>
+        <v>0.4869</v>
       </c>
       <c r="G44" t="n">
-        <v>9159.583333333334</v>
+        <v>9159.333333333334</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>9195</v>
+      </c>
+      <c r="C45" t="n">
         <v>9190</v>
       </c>
-      <c r="C45" t="n">
-        <v>9255</v>
-      </c>
       <c r="D45" t="n">
-        <v>9255</v>
+        <v>9195</v>
       </c>
       <c r="E45" t="n">
         <v>9190</v>
       </c>
       <c r="F45" t="n">
-        <v>38.2224</v>
+        <v>23.9976</v>
       </c>
       <c r="G45" t="n">
-        <v>9160.083333333334</v>
+        <v>9159.583333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9305</v>
+        <v>9190</v>
       </c>
       <c r="C46" t="n">
-        <v>9310</v>
+        <v>9255</v>
       </c>
       <c r="D46" t="n">
-        <v>9310</v>
+        <v>9255</v>
       </c>
       <c r="E46" t="n">
-        <v>9280</v>
+        <v>9190</v>
       </c>
       <c r="F46" t="n">
-        <v>39.5579</v>
+        <v>38.2224</v>
       </c>
       <c r="G46" t="n">
-        <v>9162.416666666666</v>
+        <v>9160.083333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9195</v>
+        <v>9305</v>
       </c>
       <c r="C47" t="n">
-        <v>9195</v>
+        <v>9310</v>
       </c>
       <c r="D47" t="n">
-        <v>9195</v>
+        <v>9310</v>
       </c>
       <c r="E47" t="n">
-        <v>9195</v>
+        <v>9280</v>
       </c>
       <c r="F47" t="n">
-        <v>18.5037</v>
+        <v>39.5579</v>
       </c>
       <c r="G47" t="n">
-        <v>9162.833333333334</v>
+        <v>9162.416666666666</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,25 +1747,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9210</v>
+        <v>9195</v>
       </c>
       <c r="C48" t="n">
-        <v>9115</v>
+        <v>9195</v>
       </c>
       <c r="D48" t="n">
-        <v>9210</v>
+        <v>9195</v>
       </c>
       <c r="E48" t="n">
-        <v>9115</v>
+        <v>9195</v>
       </c>
       <c r="F48" t="n">
-        <v>31.7451</v>
+        <v>18.5037</v>
       </c>
       <c r="G48" t="n">
-        <v>9162.083333333334</v>
+        <v>9162.833333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9150</v>
+        <v>9210</v>
       </c>
       <c r="C49" t="n">
-        <v>9230</v>
+        <v>9115</v>
       </c>
       <c r="D49" t="n">
-        <v>9230</v>
+        <v>9210</v>
       </c>
       <c r="E49" t="n">
-        <v>9145</v>
+        <v>9115</v>
       </c>
       <c r="F49" t="n">
-        <v>60.9164</v>
+        <v>31.7451</v>
       </c>
       <c r="G49" t="n">
-        <v>9163.25</v>
+        <v>9162.083333333334</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C50" t="n">
         <v>9230</v>
       </c>
-      <c r="C50" t="n">
-        <v>9235</v>
-      </c>
       <c r="D50" t="n">
-        <v>9235</v>
+        <v>9230</v>
       </c>
       <c r="E50" t="n">
-        <v>9230</v>
+        <v>9145</v>
       </c>
       <c r="F50" t="n">
-        <v>5.7324</v>
+        <v>60.9164</v>
       </c>
       <c r="G50" t="n">
-        <v>9164.5</v>
+        <v>9163.25</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9325</v>
+        <v>9230</v>
       </c>
       <c r="C51" t="n">
-        <v>9325</v>
+        <v>9235</v>
       </c>
       <c r="D51" t="n">
-        <v>9325</v>
+        <v>9235</v>
       </c>
       <c r="E51" t="n">
-        <v>9325</v>
+        <v>9230</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>5.7324</v>
       </c>
       <c r="G51" t="n">
-        <v>9167.416666666666</v>
+        <v>9164.5</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9140</v>
+        <v>9325</v>
       </c>
       <c r="C52" t="n">
-        <v>9140</v>
+        <v>9325</v>
       </c>
       <c r="D52" t="n">
-        <v>9140</v>
+        <v>9325</v>
       </c>
       <c r="E52" t="n">
-        <v>9140</v>
+        <v>9325</v>
       </c>
       <c r="F52" t="n">
-        <v>2.1958</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>9167.25</v>
+        <v>9167.416666666666</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9170</v>
+        <v>9140</v>
       </c>
       <c r="C53" t="n">
-        <v>9170</v>
+        <v>9140</v>
       </c>
       <c r="D53" t="n">
-        <v>9170</v>
+        <v>9140</v>
       </c>
       <c r="E53" t="n">
-        <v>9170</v>
+        <v>9140</v>
       </c>
       <c r="F53" t="n">
-        <v>2.2201</v>
+        <v>2.1958</v>
       </c>
       <c r="G53" t="n">
-        <v>9167.583333333334</v>
+        <v>9167.25</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9275</v>
+        <v>9170</v>
       </c>
       <c r="C54" t="n">
-        <v>9275</v>
+        <v>9170</v>
       </c>
       <c r="D54" t="n">
-        <v>9275</v>
+        <v>9170</v>
       </c>
       <c r="E54" t="n">
-        <v>9275</v>
+        <v>9170</v>
       </c>
       <c r="F54" t="n">
-        <v>1.8</v>
+        <v>2.2201</v>
       </c>
       <c r="G54" t="n">
-        <v>9169.666666666666</v>
+        <v>9167.583333333334</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="C55" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="D55" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="E55" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="F55" t="n">
-        <v>541.8594000000001</v>
+        <v>1.8</v>
       </c>
       <c r="G55" t="n">
-        <v>9172.166666666666</v>
+        <v>9169.666666666666</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="C56" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="D56" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="E56" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5</v>
+        <v>541.8594000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>9173.833333333334</v>
+        <v>9172.166666666666</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>9265</v>
       </c>
       <c r="C57" t="n">
-        <v>9305</v>
+        <v>9265</v>
       </c>
       <c r="D57" t="n">
-        <v>9305</v>
+        <v>9265</v>
       </c>
       <c r="E57" t="n">
         <v>9265</v>
       </c>
       <c r="F57" t="n">
-        <v>2.1918</v>
+        <v>0.5</v>
       </c>
       <c r="G57" t="n">
-        <v>9176.083333333334</v>
+        <v>9173.833333333334</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9300</v>
+        <v>9265</v>
       </c>
       <c r="C58" t="n">
         <v>9305</v>
@@ -1873,15 +2046,18 @@
         <v>9305</v>
       </c>
       <c r="E58" t="n">
-        <v>9300</v>
+        <v>9265</v>
       </c>
       <c r="F58" t="n">
-        <v>10.0635</v>
+        <v>2.1918</v>
       </c>
       <c r="G58" t="n">
-        <v>9178.333333333334</v>
+        <v>9176.083333333334</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9285</v>
+        <v>9300</v>
       </c>
       <c r="C59" t="n">
-        <v>9285</v>
+        <v>9305</v>
       </c>
       <c r="D59" t="n">
-        <v>9285</v>
+        <v>9305</v>
       </c>
       <c r="E59" t="n">
-        <v>9285</v>
+        <v>9300</v>
       </c>
       <c r="F59" t="n">
-        <v>23.4291</v>
+        <v>10.0635</v>
       </c>
       <c r="G59" t="n">
-        <v>9180.25</v>
+        <v>9178.333333333334</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="C60" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="D60" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="E60" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="F60" t="n">
-        <v>51.7465</v>
+        <v>23.4291</v>
       </c>
       <c r="G60" t="n">
-        <v>9182</v>
+        <v>9180.25</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9230</v>
+        <v>9280</v>
       </c>
       <c r="C61" t="n">
-        <v>9155</v>
+        <v>9280</v>
       </c>
       <c r="D61" t="n">
-        <v>9230</v>
+        <v>9280</v>
       </c>
       <c r="E61" t="n">
-        <v>9155</v>
+        <v>9280</v>
       </c>
       <c r="F61" t="n">
-        <v>41</v>
+        <v>51.7465</v>
       </c>
       <c r="G61" t="n">
-        <v>9181.666666666666</v>
+        <v>9182</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9175</v>
+        <v>9230</v>
       </c>
       <c r="C62" t="n">
-        <v>9175</v>
+        <v>9155</v>
       </c>
       <c r="D62" t="n">
-        <v>9175</v>
+        <v>9230</v>
       </c>
       <c r="E62" t="n">
-        <v>9175</v>
+        <v>9155</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4614</v>
+        <v>41</v>
       </c>
       <c r="G62" t="n">
-        <v>9180.833333333334</v>
+        <v>9181.666666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9320</v>
+        <v>9175</v>
       </c>
       <c r="C63" t="n">
-        <v>9320</v>
+        <v>9175</v>
       </c>
       <c r="D63" t="n">
-        <v>9320</v>
+        <v>9175</v>
       </c>
       <c r="E63" t="n">
-        <v>9320</v>
+        <v>9175</v>
       </c>
       <c r="F63" t="n">
-        <v>1.07296137</v>
+        <v>0.4614</v>
       </c>
       <c r="G63" t="n">
-        <v>9183.25</v>
+        <v>9180.833333333334</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9225</v>
+        <v>9320</v>
       </c>
       <c r="C64" t="n">
-        <v>9225</v>
+        <v>9320</v>
       </c>
       <c r="D64" t="n">
-        <v>9225</v>
+        <v>9320</v>
       </c>
       <c r="E64" t="n">
-        <v>9225</v>
+        <v>9320</v>
       </c>
       <c r="F64" t="n">
-        <v>12.86</v>
+        <v>1.07296137</v>
       </c>
       <c r="G64" t="n">
-        <v>9184.083333333334</v>
+        <v>9183.25</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9250</v>
+        <v>9225</v>
       </c>
       <c r="C65" t="n">
-        <v>9250</v>
+        <v>9225</v>
       </c>
       <c r="D65" t="n">
-        <v>9250</v>
+        <v>9225</v>
       </c>
       <c r="E65" t="n">
-        <v>9250</v>
+        <v>9225</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4</v>
+        <v>12.86</v>
       </c>
       <c r="G65" t="n">
-        <v>9185.333333333334</v>
+        <v>9184.083333333334</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9225</v>
+        <v>9250</v>
       </c>
       <c r="C66" t="n">
-        <v>9230</v>
+        <v>9250</v>
       </c>
       <c r="D66" t="n">
-        <v>9230</v>
+        <v>9250</v>
       </c>
       <c r="E66" t="n">
-        <v>9225</v>
+        <v>9250</v>
       </c>
       <c r="F66" t="n">
-        <v>83.73</v>
+        <v>0.4</v>
       </c>
       <c r="G66" t="n">
-        <v>9186.25</v>
+        <v>9185.333333333334</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9230</v>
+        <v>9225</v>
       </c>
       <c r="C67" t="n">
         <v>9230</v>
@@ -2107,15 +2307,18 @@
         <v>9230</v>
       </c>
       <c r="E67" t="n">
-        <v>9230</v>
+        <v>9225</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5580000000000001</v>
+        <v>83.73</v>
       </c>
       <c r="G67" t="n">
-        <v>9187.083333333334</v>
+        <v>9186.25</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>9230</v>
       </c>
       <c r="C68" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="D68" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="E68" t="n">
         <v>9230</v>
       </c>
       <c r="F68" t="n">
-        <v>12.1491</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>9188.166666666666</v>
+        <v>9187.083333333334</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9250</v>
+        <v>9230</v>
       </c>
       <c r="C69" t="n">
-        <v>9250</v>
+        <v>9240</v>
       </c>
       <c r="D69" t="n">
-        <v>9250</v>
+        <v>9240</v>
       </c>
       <c r="E69" t="n">
-        <v>9250</v>
+        <v>9230</v>
       </c>
       <c r="F69" t="n">
-        <v>249.6648</v>
+        <v>12.1491</v>
       </c>
       <c r="G69" t="n">
-        <v>9189.5</v>
+        <v>9188.166666666666</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="C70" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="D70" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="E70" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="F70" t="n">
-        <v>14.6331</v>
+        <v>249.6648</v>
       </c>
       <c r="G70" t="n">
-        <v>9190.833333333334</v>
+        <v>9189.5</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>9260</v>
       </c>
       <c r="C71" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="D71" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="E71" t="n">
         <v>9260</v>
       </c>
       <c r="F71" t="n">
-        <v>101.0328</v>
+        <v>14.6331</v>
       </c>
       <c r="G71" t="n">
-        <v>9192.416666666666</v>
+        <v>9190.833333333334</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="C72" t="n">
-        <v>9200</v>
+        <v>9265</v>
       </c>
       <c r="D72" t="n">
-        <v>9200</v>
+        <v>9265</v>
       </c>
       <c r="E72" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="F72" t="n">
-        <v>340.1814</v>
+        <v>101.0328</v>
       </c>
       <c r="G72" t="n">
-        <v>9192.916666666666</v>
+        <v>9192.416666666666</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="C73" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="D73" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="E73" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="F73" t="n">
-        <v>241.5915</v>
+        <v>340.1814</v>
       </c>
       <c r="G73" t="n">
-        <v>9194.333333333334</v>
+        <v>9192.916666666666</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="C74" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="D74" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="E74" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="F74" t="n">
-        <v>103.3197</v>
+        <v>241.5915</v>
       </c>
       <c r="G74" t="n">
-        <v>9195.833333333334</v>
+        <v>9194.333333333334</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9270</v>
+        <v>9255</v>
       </c>
       <c r="C75" t="n">
-        <v>9270</v>
+        <v>9255</v>
       </c>
       <c r="D75" t="n">
-        <v>9270</v>
+        <v>9255</v>
       </c>
       <c r="E75" t="n">
-        <v>9270</v>
+        <v>9255</v>
       </c>
       <c r="F75" t="n">
-        <v>10.2809</v>
+        <v>103.3197</v>
       </c>
       <c r="G75" t="n">
-        <v>9197.833333333334</v>
+        <v>9195.833333333334</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>9270</v>
       </c>
       <c r="F76" t="n">
-        <v>3.0311</v>
+        <v>10.2809</v>
       </c>
       <c r="G76" t="n">
-        <v>9199.75</v>
+        <v>9197.833333333334</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="C77" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="D77" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="E77" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="F77" t="n">
-        <v>10.7933</v>
+        <v>3.0311</v>
       </c>
       <c r="G77" t="n">
-        <v>9201.666666666666</v>
+        <v>9199.75</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="C78" t="n">
-        <v>9185</v>
+        <v>9265</v>
       </c>
       <c r="D78" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="E78" t="n">
-        <v>9185</v>
+        <v>9265</v>
       </c>
       <c r="F78" t="n">
-        <v>61</v>
+        <v>10.7933</v>
       </c>
       <c r="G78" t="n">
-        <v>9202.416666666666</v>
+        <v>9201.666666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>9195</v>
+      </c>
+      <c r="C79" t="n">
         <v>9185</v>
       </c>
-      <c r="C79" t="n">
-        <v>9150</v>
-      </c>
       <c r="D79" t="n">
+        <v>9195</v>
+      </c>
+      <c r="E79" t="n">
         <v>9185</v>
       </c>
-      <c r="E79" t="n">
-        <v>9150</v>
-      </c>
       <c r="F79" t="n">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="G79" t="n">
-        <v>9202.583333333334</v>
+        <v>9202.416666666666</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>9185</v>
+      </c>
+      <c r="C80" t="n">
         <v>9150</v>
       </c>
-      <c r="C80" t="n">
-        <v>9155</v>
-      </c>
       <c r="D80" t="n">
-        <v>9155</v>
+        <v>9185</v>
       </c>
       <c r="E80" t="n">
         <v>9150</v>
       </c>
       <c r="F80" t="n">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="G80" t="n">
-        <v>9202.833333333334</v>
+        <v>9202.583333333334</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9155</v>
+        <v>9150</v>
       </c>
       <c r="C81" t="n">
         <v>9155</v>
@@ -2471,15 +2713,18 @@
         <v>9155</v>
       </c>
       <c r="E81" t="n">
-        <v>9155</v>
+        <v>9150</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G81" t="n">
-        <v>9203.083333333334</v>
+        <v>9202.833333333334</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9160</v>
+        <v>9155</v>
       </c>
       <c r="C82" t="n">
-        <v>9160</v>
+        <v>9155</v>
       </c>
       <c r="D82" t="n">
-        <v>9160</v>
+        <v>9155</v>
       </c>
       <c r="E82" t="n">
-        <v>9160</v>
+        <v>9155</v>
       </c>
       <c r="F82" t="n">
-        <v>13.772</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>9203.333333333334</v>
+        <v>9203.083333333334</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9215</v>
+        <v>9160</v>
       </c>
       <c r="C83" t="n">
-        <v>9215</v>
+        <v>9160</v>
       </c>
       <c r="D83" t="n">
-        <v>9215</v>
+        <v>9160</v>
       </c>
       <c r="E83" t="n">
-        <v>9215</v>
+        <v>9160</v>
       </c>
       <c r="F83" t="n">
-        <v>12.2354</v>
+        <v>13.772</v>
       </c>
       <c r="G83" t="n">
-        <v>9204.666666666666</v>
+        <v>9203.333333333334</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="C84" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="D84" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="E84" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="F84" t="n">
-        <v>388.301</v>
+        <v>12.2354</v>
       </c>
       <c r="G84" t="n">
-        <v>9206.916666666666</v>
+        <v>9204.666666666666</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="C85" t="n">
         <v>9270</v>
       </c>
       <c r="D85" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E85" t="n">
         <v>9270</v>
       </c>
       <c r="F85" t="n">
-        <v>68.7697</v>
+        <v>388.301</v>
       </c>
       <c r="G85" t="n">
-        <v>9209.166666666666</v>
+        <v>9206.916666666666</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="C86" t="n">
         <v>9270</v>
       </c>
       <c r="D86" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="E86" t="n">
         <v>9270</v>
       </c>
       <c r="F86" t="n">
-        <v>10.5017</v>
+        <v>68.7697</v>
       </c>
       <c r="G86" t="n">
-        <v>9211.5</v>
+        <v>9209.166666666666</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9245</v>
+        <v>9270</v>
       </c>
       <c r="C87" t="n">
-        <v>9230</v>
+        <v>9270</v>
       </c>
       <c r="D87" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E87" t="n">
-        <v>9230</v>
+        <v>9270</v>
       </c>
       <c r="F87" t="n">
-        <v>299.7109</v>
+        <v>10.5017</v>
       </c>
       <c r="G87" t="n">
-        <v>9213.166666666666</v>
+        <v>9211.5</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9220</v>
+        <v>9245</v>
       </c>
       <c r="C88" t="n">
-        <v>9215</v>
+        <v>9230</v>
       </c>
       <c r="D88" t="n">
-        <v>9220</v>
+        <v>9275</v>
       </c>
       <c r="E88" t="n">
-        <v>9215</v>
+        <v>9230</v>
       </c>
       <c r="F88" t="n">
-        <v>74.9465</v>
+        <v>299.7109</v>
       </c>
       <c r="G88" t="n">
-        <v>9214.583333333334</v>
+        <v>9213.166666666666</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9185</v>
+        <v>9220</v>
       </c>
       <c r="C89" t="n">
-        <v>9185</v>
+        <v>9215</v>
       </c>
       <c r="D89" t="n">
-        <v>9185</v>
+        <v>9220</v>
       </c>
       <c r="E89" t="n">
-        <v>9185</v>
+        <v>9215</v>
       </c>
       <c r="F89" t="n">
-        <v>17.7183</v>
+        <v>74.9465</v>
       </c>
       <c r="G89" t="n">
-        <v>9215.666666666666</v>
+        <v>9214.583333333334</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9235</v>
+        <v>9185</v>
       </c>
       <c r="C90" t="n">
-        <v>9375</v>
+        <v>9185</v>
       </c>
       <c r="D90" t="n">
-        <v>9375</v>
+        <v>9185</v>
       </c>
       <c r="E90" t="n">
-        <v>9235</v>
+        <v>9185</v>
       </c>
       <c r="F90" t="n">
-        <v>18.9613137</v>
+        <v>17.7183</v>
       </c>
       <c r="G90" t="n">
-        <v>9219.916666666666</v>
+        <v>9215.666666666666</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9230</v>
+        <v>9235</v>
       </c>
       <c r="C91" t="n">
-        <v>9230</v>
+        <v>9375</v>
       </c>
       <c r="D91" t="n">
-        <v>9230</v>
+        <v>9375</v>
       </c>
       <c r="E91" t="n">
-        <v>9230</v>
+        <v>9235</v>
       </c>
       <c r="F91" t="n">
-        <v>36.9871</v>
+        <v>18.9613137</v>
       </c>
       <c r="G91" t="n">
-        <v>9221.75</v>
+        <v>9219.916666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="C92" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="D92" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="E92" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="F92" t="n">
-        <v>49.2601</v>
+        <v>36.9871</v>
       </c>
       <c r="G92" t="n">
-        <v>9220</v>
+        <v>9221.75</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="C93" t="n">
         <v>9240</v>
       </c>
       <c r="D93" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="E93" t="n">
         <v>9240</v>
       </c>
       <c r="F93" t="n">
-        <v>558.7833000000001</v>
+        <v>49.2601</v>
       </c>
       <c r="G93" t="n">
-        <v>9221.916666666666</v>
+        <v>9220</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2803,21 +3084,24 @@
         <v>9245</v>
       </c>
       <c r="C94" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="D94" t="n">
         <v>9245</v>
       </c>
       <c r="E94" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="F94" t="n">
-        <v>5.55</v>
+        <v>558.7833000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>9223.916666666666</v>
+        <v>9221.916666666666</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9330</v>
+        <v>9245</v>
       </c>
       <c r="C95" t="n">
-        <v>9330</v>
+        <v>9245</v>
       </c>
       <c r="D95" t="n">
-        <v>9330</v>
+        <v>9245</v>
       </c>
       <c r="E95" t="n">
-        <v>9330</v>
+        <v>9245</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>5.55</v>
       </c>
       <c r="G95" t="n">
-        <v>9227.416666666666</v>
+        <v>9223.916666666666</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3142,24 @@
         <v>9330</v>
       </c>
       <c r="C96" t="n">
-        <v>9240</v>
+        <v>9330</v>
       </c>
       <c r="D96" t="n">
         <v>9330</v>
       </c>
       <c r="E96" t="n">
-        <v>9240</v>
+        <v>9330</v>
       </c>
       <c r="F96" t="n">
-        <v>101.5717</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>9227.916666666666</v>
+        <v>9227.416666666666</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9240</v>
+        <v>9330</v>
       </c>
       <c r="C97" t="n">
         <v>9240</v>
       </c>
       <c r="D97" t="n">
-        <v>9240</v>
+        <v>9330</v>
       </c>
       <c r="E97" t="n">
         <v>9240</v>
       </c>
       <c r="F97" t="n">
-        <v>42</v>
+        <v>101.5717</v>
       </c>
       <c r="G97" t="n">
-        <v>9230.083333333334</v>
+        <v>9227.916666666666</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>9240</v>
       </c>
       <c r="C98" t="n">
-        <v>9100</v>
+        <v>9240</v>
       </c>
       <c r="D98" t="n">
         <v>9240</v>
       </c>
       <c r="E98" t="n">
-        <v>9085</v>
+        <v>9240</v>
       </c>
       <c r="F98" t="n">
-        <v>1013.6774</v>
+        <v>42</v>
       </c>
       <c r="G98" t="n">
-        <v>9229.916666666666</v>
+        <v>9230.083333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9100</v>
+        <v>9240</v>
       </c>
       <c r="C99" t="n">
         <v>9100</v>
       </c>
       <c r="D99" t="n">
-        <v>9110</v>
+        <v>9240</v>
       </c>
       <c r="E99" t="n">
-        <v>9100</v>
+        <v>9085</v>
       </c>
       <c r="F99" t="n">
-        <v>64.5</v>
+        <v>1013.6774</v>
       </c>
       <c r="G99" t="n">
-        <v>9229.833333333334</v>
+        <v>9229.916666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9165</v>
+        <v>9100</v>
       </c>
       <c r="C100" t="n">
-        <v>9165</v>
+        <v>9100</v>
       </c>
       <c r="D100" t="n">
-        <v>9165</v>
+        <v>9110</v>
       </c>
       <c r="E100" t="n">
-        <v>9165</v>
+        <v>9100</v>
       </c>
       <c r="F100" t="n">
-        <v>86.2234</v>
+        <v>64.5</v>
       </c>
       <c r="G100" t="n">
-        <v>9230.916666666666</v>
+        <v>9229.833333333334</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9200</v>
+        <v>9165</v>
       </c>
       <c r="C101" t="n">
-        <v>9200</v>
+        <v>9165</v>
       </c>
       <c r="D101" t="n">
-        <v>9200</v>
+        <v>9165</v>
       </c>
       <c r="E101" t="n">
-        <v>9200</v>
+        <v>9165</v>
       </c>
       <c r="F101" t="n">
-        <v>19.9009</v>
+        <v>86.2234</v>
       </c>
       <c r="G101" t="n">
-        <v>9231.333333333334</v>
+        <v>9230.916666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9315</v>
+        <v>9200</v>
       </c>
       <c r="C102" t="n">
-        <v>9325</v>
+        <v>9200</v>
       </c>
       <c r="D102" t="n">
-        <v>9325</v>
+        <v>9200</v>
       </c>
       <c r="E102" t="n">
-        <v>9315</v>
+        <v>9200</v>
       </c>
       <c r="F102" t="n">
-        <v>26.0796</v>
+        <v>19.9009</v>
       </c>
       <c r="G102" t="n">
-        <v>9233.333333333334</v>
+        <v>9231.333333333334</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9205</v>
+        <v>9315</v>
       </c>
       <c r="C103" t="n">
-        <v>9215</v>
+        <v>9325</v>
       </c>
       <c r="D103" t="n">
-        <v>9215</v>
+        <v>9325</v>
       </c>
       <c r="E103" t="n">
-        <v>9205</v>
+        <v>9315</v>
       </c>
       <c r="F103" t="n">
-        <v>26.4383</v>
+        <v>26.0796</v>
       </c>
       <c r="G103" t="n">
-        <v>9233.25</v>
+        <v>9233.333333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9230</v>
+        <v>9205</v>
       </c>
       <c r="C104" t="n">
         <v>9215</v>
       </c>
       <c r="D104" t="n">
-        <v>9260</v>
+        <v>9215</v>
       </c>
       <c r="E104" t="n">
-        <v>9215</v>
+        <v>9205</v>
       </c>
       <c r="F104" t="n">
-        <v>202.8281</v>
+        <v>26.4383</v>
       </c>
       <c r="G104" t="n">
-        <v>9233.666666666666</v>
+        <v>9233.25</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9215</v>
+        <v>9230</v>
       </c>
       <c r="C105" t="n">
         <v>9215</v>
       </c>
       <c r="D105" t="n">
-        <v>9215</v>
+        <v>9260</v>
       </c>
       <c r="E105" t="n">
         <v>9215</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>202.8281</v>
       </c>
       <c r="G105" t="n">
-        <v>9233</v>
+        <v>9233.666666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9225</v>
+        <v>9215</v>
       </c>
       <c r="C106" t="n">
-        <v>9225</v>
+        <v>9215</v>
       </c>
       <c r="D106" t="n">
-        <v>9225</v>
+        <v>9215</v>
       </c>
       <c r="E106" t="n">
-        <v>9225</v>
+        <v>9215</v>
       </c>
       <c r="F106" t="n">
-        <v>12.3386</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>9231.583333333334</v>
+        <v>9233</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9270</v>
+        <v>9225</v>
       </c>
       <c r="C107" t="n">
-        <v>9270</v>
+        <v>9225</v>
       </c>
       <c r="D107" t="n">
-        <v>9270</v>
+        <v>9225</v>
       </c>
       <c r="E107" t="n">
-        <v>9270</v>
+        <v>9225</v>
       </c>
       <c r="F107" t="n">
-        <v>1.6038</v>
+        <v>12.3386</v>
       </c>
       <c r="G107" t="n">
-        <v>9232.833333333334</v>
+        <v>9231.583333333334</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9285</v>
+        <v>9270</v>
       </c>
       <c r="C108" t="n">
         <v>9270</v>
       </c>
       <c r="D108" t="n">
-        <v>9285</v>
+        <v>9270</v>
       </c>
       <c r="E108" t="n">
         <v>9270</v>
       </c>
       <c r="F108" t="n">
-        <v>20.1264</v>
+        <v>1.6038</v>
       </c>
       <c r="G108" t="n">
-        <v>9235.416666666666</v>
+        <v>9232.833333333334</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9315</v>
+        <v>9285</v>
       </c>
       <c r="C109" t="n">
-        <v>9245</v>
+        <v>9270</v>
       </c>
       <c r="D109" t="n">
-        <v>9315</v>
+        <v>9285</v>
       </c>
       <c r="E109" t="n">
-        <v>9245</v>
+        <v>9270</v>
       </c>
       <c r="F109" t="n">
-        <v>43.5133</v>
+        <v>20.1264</v>
       </c>
       <c r="G109" t="n">
-        <v>9235.666666666666</v>
+        <v>9235.416666666666</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>9315</v>
+      </c>
+      <c r="C110" t="n">
         <v>9245</v>
       </c>
-      <c r="C110" t="n">
-        <v>9165</v>
-      </c>
       <c r="D110" t="n">
+        <v>9315</v>
+      </c>
+      <c r="E110" t="n">
         <v>9245</v>
       </c>
-      <c r="E110" t="n">
-        <v>9165</v>
-      </c>
       <c r="F110" t="n">
-        <v>496.0999</v>
+        <v>43.5133</v>
       </c>
       <c r="G110" t="n">
-        <v>9234.5</v>
+        <v>9235.666666666666</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9195</v>
+        <v>9245</v>
       </c>
       <c r="C111" t="n">
-        <v>9195</v>
+        <v>9165</v>
       </c>
       <c r="D111" t="n">
-        <v>9195</v>
+        <v>9245</v>
       </c>
       <c r="E111" t="n">
-        <v>9195</v>
+        <v>9165</v>
       </c>
       <c r="F111" t="n">
-        <v>36.7062</v>
+        <v>496.0999</v>
       </c>
       <c r="G111" t="n">
-        <v>9232.333333333334</v>
+        <v>9234.5</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="C112" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="D112" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="E112" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="F112" t="n">
-        <v>4.6708</v>
+        <v>36.7062</v>
       </c>
       <c r="G112" t="n">
-        <v>9233.583333333334</v>
+        <v>9232.333333333334</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="C113" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="D113" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="E113" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="F113" t="n">
-        <v>10.8958</v>
+        <v>4.6708</v>
       </c>
       <c r="G113" t="n">
-        <v>9234.916666666666</v>
+        <v>9233.583333333334</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9205</v>
+        <v>9250</v>
       </c>
       <c r="C114" t="n">
-        <v>9200</v>
+        <v>9250</v>
       </c>
       <c r="D114" t="n">
-        <v>9205</v>
+        <v>9250</v>
       </c>
       <c r="E114" t="n">
-        <v>9200</v>
+        <v>9250</v>
       </c>
       <c r="F114" t="n">
-        <v>101.41</v>
+        <v>10.8958</v>
       </c>
       <c r="G114" t="n">
-        <v>9233.666666666666</v>
+        <v>9234.916666666666</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9170</v>
+        <v>9205</v>
       </c>
       <c r="C115" t="n">
-        <v>9165</v>
+        <v>9200</v>
       </c>
       <c r="D115" t="n">
-        <v>9170</v>
+        <v>9205</v>
       </c>
       <c r="E115" t="n">
-        <v>9165</v>
+        <v>9200</v>
       </c>
       <c r="F115" t="n">
-        <v>291.9555</v>
+        <v>101.41</v>
       </c>
       <c r="G115" t="n">
-        <v>9231.416666666666</v>
+        <v>9233.666666666666</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="C116" t="n">
         <v>9165</v>
       </c>
       <c r="D116" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="E116" t="n">
         <v>9165</v>
       </c>
       <c r="F116" t="n">
-        <v>9.853899999999999</v>
+        <v>291.9555</v>
       </c>
       <c r="G116" t="n">
-        <v>9229.75</v>
+        <v>9231.416666666666</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9110</v>
+        <v>9165</v>
       </c>
       <c r="C117" t="n">
-        <v>9080</v>
+        <v>9165</v>
       </c>
       <c r="D117" t="n">
-        <v>9110</v>
+        <v>9165</v>
       </c>
       <c r="E117" t="n">
-        <v>9080</v>
+        <v>9165</v>
       </c>
       <c r="F117" t="n">
-        <v>797</v>
+        <v>9.853899999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>9226</v>
+        <v>9229.75</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="C118" t="n">
-        <v>9105</v>
+        <v>9080</v>
       </c>
       <c r="D118" t="n">
-        <v>9105</v>
+        <v>9110</v>
       </c>
       <c r="E118" t="n">
-        <v>9100</v>
+        <v>9080</v>
       </c>
       <c r="F118" t="n">
-        <v>242.1889</v>
+        <v>797</v>
       </c>
       <c r="G118" t="n">
-        <v>9222.666666666666</v>
+        <v>9226</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>9100</v>
       </c>
       <c r="C119" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D119" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="E119" t="n">
         <v>9100</v>
       </c>
       <c r="F119" t="n">
-        <v>8.8339</v>
+        <v>242.1889</v>
       </c>
       <c r="G119" t="n">
-        <v>9219.583333333334</v>
+        <v>9222.666666666666</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="C120" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="D120" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="E120" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="F120" t="n">
-        <v>100</v>
+        <v>8.8339</v>
       </c>
       <c r="G120" t="n">
-        <v>9217.166666666666</v>
+        <v>9219.583333333334</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9110</v>
+        <v>9135</v>
       </c>
       <c r="C121" t="n">
-        <v>9075</v>
+        <v>9135</v>
       </c>
       <c r="D121" t="n">
-        <v>9110</v>
+        <v>9135</v>
       </c>
       <c r="E121" t="n">
-        <v>9070</v>
+        <v>9135</v>
       </c>
       <c r="F121" t="n">
-        <v>643.7294000000001</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>9215.833333333334</v>
+        <v>9217.166666666666</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>9110</v>
+      </c>
+      <c r="C122" t="n">
         <v>9075</v>
       </c>
-      <c r="C122" t="n">
-        <v>9070</v>
-      </c>
       <c r="D122" t="n">
-        <v>9075</v>
+        <v>9110</v>
       </c>
       <c r="E122" t="n">
         <v>9070</v>
       </c>
       <c r="F122" t="n">
-        <v>132.8464</v>
+        <v>643.7294000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>9214.083333333334</v>
+        <v>9215.833333333334</v>
       </c>
       <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9120</v>
+        <v>9075</v>
       </c>
       <c r="C123" t="n">
-        <v>9115</v>
+        <v>9070</v>
       </c>
       <c r="D123" t="n">
-        <v>9120</v>
+        <v>9075</v>
       </c>
       <c r="E123" t="n">
-        <v>9075</v>
+        <v>9070</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5</v>
+        <v>132.8464</v>
       </c>
       <c r="G123" t="n">
-        <v>9210.666666666666</v>
+        <v>9214.083333333334</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9075</v>
+        <v>9120</v>
       </c>
       <c r="C124" t="n">
-        <v>9075</v>
+        <v>9115</v>
       </c>
       <c r="D124" t="n">
-        <v>9115</v>
+        <v>9120</v>
       </c>
       <c r="E124" t="n">
         <v>9075</v>
       </c>
       <c r="F124" t="n">
-        <v>16.2751</v>
+        <v>0.5</v>
       </c>
       <c r="G124" t="n">
-        <v>9208.166666666666</v>
+        <v>9210.666666666666</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9105</v>
+        <v>9075</v>
       </c>
       <c r="C125" t="n">
-        <v>9125</v>
+        <v>9075</v>
       </c>
       <c r="D125" t="n">
-        <v>9140</v>
+        <v>9115</v>
       </c>
       <c r="E125" t="n">
         <v>9075</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4</v>
+        <v>16.2751</v>
       </c>
       <c r="G125" t="n">
-        <v>9206.083333333334</v>
+        <v>9208.166666666666</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3635,21 +4012,24 @@
         <v>9105</v>
       </c>
       <c r="C126" t="n">
-        <v>9105</v>
+        <v>9125</v>
       </c>
       <c r="D126" t="n">
-        <v>9105</v>
+        <v>9140</v>
       </c>
       <c r="E126" t="n">
-        <v>9105</v>
+        <v>9075</v>
       </c>
       <c r="F126" t="n">
-        <v>5.0737</v>
+        <v>0.4</v>
       </c>
       <c r="G126" t="n">
-        <v>9204</v>
+        <v>9206.083333333334</v>
       </c>
       <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9075</v>
+        <v>9105</v>
       </c>
       <c r="C127" t="n">
-        <v>9075</v>
+        <v>9105</v>
       </c>
       <c r="D127" t="n">
-        <v>9075</v>
+        <v>9105</v>
       </c>
       <c r="E127" t="n">
-        <v>9075</v>
+        <v>9105</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2</v>
+        <v>5.0737</v>
       </c>
       <c r="G127" t="n">
-        <v>9201.416666666666</v>
+        <v>9204</v>
       </c>
       <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9110</v>
+        <v>9075</v>
       </c>
       <c r="C128" t="n">
-        <v>9105</v>
+        <v>9075</v>
       </c>
       <c r="D128" t="n">
-        <v>9110</v>
+        <v>9075</v>
       </c>
       <c r="E128" t="n">
-        <v>9105</v>
+        <v>9075</v>
       </c>
       <c r="F128" t="n">
-        <v>31.665</v>
+        <v>0.2</v>
       </c>
       <c r="G128" t="n">
-        <v>9199.166666666666</v>
+        <v>9201.416666666666</v>
       </c>
       <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="C129" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D129" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="E129" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="F129" t="n">
-        <v>17.1557</v>
+        <v>31.665</v>
       </c>
       <c r="G129" t="n">
-        <v>9196.666666666666</v>
+        <v>9199.166666666666</v>
       </c>
       <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="C130" t="n">
-        <v>9075</v>
+        <v>9100</v>
       </c>
       <c r="D130" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="E130" t="n">
-        <v>9075</v>
+        <v>9100</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2</v>
+        <v>17.1557</v>
       </c>
       <c r="G130" t="n">
-        <v>9193.583333333334</v>
+        <v>9196.666666666666</v>
       </c>
       <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9250</v>
+        <v>9135</v>
       </c>
       <c r="C131" t="n">
-        <v>9215</v>
+        <v>9075</v>
       </c>
       <c r="D131" t="n">
-        <v>9250</v>
+        <v>9135</v>
       </c>
       <c r="E131" t="n">
-        <v>9215</v>
+        <v>9075</v>
       </c>
       <c r="F131" t="n">
         <v>0.2</v>
       </c>
       <c r="G131" t="n">
-        <v>9192.75</v>
+        <v>9193.583333333334</v>
       </c>
       <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9075</v>
+        <v>9250</v>
       </c>
       <c r="C132" t="n">
-        <v>9290</v>
+        <v>9215</v>
       </c>
       <c r="D132" t="n">
-        <v>9290</v>
+        <v>9250</v>
       </c>
       <c r="E132" t="n">
-        <v>9075</v>
+        <v>9215</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G132" t="n">
-        <v>9194.25</v>
+        <v>9192.75</v>
       </c>
       <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9150</v>
+        <v>9075</v>
       </c>
       <c r="C133" t="n">
-        <v>9150</v>
+        <v>9290</v>
       </c>
       <c r="D133" t="n">
-        <v>9150</v>
+        <v>9290</v>
       </c>
       <c r="E133" t="n">
-        <v>9150</v>
+        <v>9075</v>
       </c>
       <c r="F133" t="n">
-        <v>16.856</v>
+        <v>0.3</v>
       </c>
       <c r="G133" t="n">
-        <v>9192.583333333334</v>
+        <v>9194.25</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9255</v>
+        <v>9150</v>
       </c>
       <c r="C134" t="n">
-        <v>9255</v>
+        <v>9150</v>
       </c>
       <c r="D134" t="n">
-        <v>9255</v>
+        <v>9150</v>
       </c>
       <c r="E134" t="n">
-        <v>9255</v>
+        <v>9150</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1</v>
+        <v>16.856</v>
       </c>
       <c r="G134" t="n">
         <v>9192.583333333334</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9215</v>
+        <v>9255</v>
       </c>
       <c r="C135" t="n">
-        <v>9305</v>
+        <v>9255</v>
       </c>
       <c r="D135" t="n">
-        <v>9305</v>
+        <v>9255</v>
       </c>
       <c r="E135" t="n">
-        <v>9090</v>
+        <v>9255</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="G135" t="n">
-        <v>9193.166666666666</v>
+        <v>9192.583333333334</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9195</v>
+        <v>9215</v>
       </c>
       <c r="C136" t="n">
-        <v>9195</v>
+        <v>9305</v>
       </c>
       <c r="D136" t="n">
-        <v>9195</v>
+        <v>9305</v>
       </c>
       <c r="E136" t="n">
-        <v>9195</v>
+        <v>9090</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="G136" t="n">
-        <v>9191.916666666666</v>
+        <v>9193.166666666666</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,16 +4328,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="C137" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="D137" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="E137" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="F137" t="n">
         <v>0.1</v>
@@ -3936,6 +4346,9 @@
         <v>9191.916666666666</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9090</v>
+        <v>9265</v>
       </c>
       <c r="C138" t="n">
-        <v>9090</v>
+        <v>9265</v>
       </c>
       <c r="D138" t="n">
-        <v>9090</v>
+        <v>9265</v>
       </c>
       <c r="E138" t="n">
-        <v>9090</v>
+        <v>9265</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G138" t="n">
-        <v>9190.333333333334</v>
+        <v>9191.916666666666</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9255</v>
+        <v>9090</v>
       </c>
       <c r="C139" t="n">
-        <v>9255</v>
+        <v>9090</v>
       </c>
       <c r="D139" t="n">
-        <v>9255</v>
+        <v>9090</v>
       </c>
       <c r="E139" t="n">
-        <v>9255</v>
+        <v>9090</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G139" t="n">
-        <v>9192.083333333334</v>
+        <v>9190.333333333334</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4011,9 +4430,12 @@
         <v>0.1</v>
       </c>
       <c r="G140" t="n">
-        <v>9193.75</v>
+        <v>9192.083333333334</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4025,21 +4447,24 @@
         <v>9255</v>
       </c>
       <c r="C141" t="n">
-        <v>9295</v>
+        <v>9255</v>
       </c>
       <c r="D141" t="n">
-        <v>9295</v>
+        <v>9255</v>
       </c>
       <c r="E141" t="n">
         <v>9255</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G141" t="n">
-        <v>9196.083333333334</v>
+        <v>9193.75</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9185</v>
+        <v>9255</v>
       </c>
       <c r="C142" t="n">
-        <v>9185</v>
+        <v>9295</v>
       </c>
       <c r="D142" t="n">
-        <v>9185</v>
+        <v>9295</v>
       </c>
       <c r="E142" t="n">
-        <v>9185</v>
+        <v>9255</v>
       </c>
       <c r="F142" t="n">
-        <v>84.8509</v>
+        <v>0.2</v>
       </c>
       <c r="G142" t="n">
-        <v>9196.5</v>
+        <v>9196.083333333334</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9175</v>
+        <v>9185</v>
       </c>
       <c r="C143" t="n">
-        <v>9095</v>
+        <v>9185</v>
       </c>
       <c r="D143" t="n">
-        <v>9175</v>
+        <v>9185</v>
       </c>
       <c r="E143" t="n">
-        <v>9095</v>
+        <v>9185</v>
       </c>
       <c r="F143" t="n">
-        <v>300.836</v>
+        <v>84.8509</v>
       </c>
       <c r="G143" t="n">
-        <v>9194.5</v>
+        <v>9196.5</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C144" t="n">
         <v>9095</v>
       </c>
-      <c r="C144" t="n">
-        <v>9065</v>
-      </c>
       <c r="D144" t="n">
-        <v>9145</v>
+        <v>9175</v>
       </c>
       <c r="E144" t="n">
-        <v>9065</v>
+        <v>9095</v>
       </c>
       <c r="F144" t="n">
-        <v>1070.5838</v>
+        <v>300.836</v>
       </c>
       <c r="G144" t="n">
-        <v>9191.083333333334</v>
+        <v>9194.5</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9080</v>
+        <v>9095</v>
       </c>
       <c r="C145" t="n">
-        <v>9185</v>
+        <v>9065</v>
       </c>
       <c r="D145" t="n">
-        <v>9185</v>
+        <v>9145</v>
       </c>
       <c r="E145" t="n">
-        <v>9080</v>
+        <v>9065</v>
       </c>
       <c r="F145" t="n">
-        <v>43.0901</v>
+        <v>1070.5838</v>
       </c>
       <c r="G145" t="n">
-        <v>9189.666666666666</v>
+        <v>9191.083333333334</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9070</v>
+        <v>9080</v>
       </c>
       <c r="C146" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9185</v>
+      </c>
+      <c r="E146" t="n">
         <v>9080</v>
       </c>
-      <c r="D146" t="n">
-        <v>9080</v>
-      </c>
-      <c r="E146" t="n">
-        <v>9070</v>
-      </c>
       <c r="F146" t="n">
-        <v>160.1</v>
+        <v>43.0901</v>
       </c>
       <c r="G146" t="n">
-        <v>9186.5</v>
+        <v>9189.666666666666</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9065</v>
+        <v>9070</v>
       </c>
       <c r="C147" t="n">
-        <v>9065</v>
+        <v>9080</v>
       </c>
       <c r="D147" t="n">
-        <v>9065</v>
+        <v>9080</v>
       </c>
       <c r="E147" t="n">
-        <v>9065</v>
+        <v>9070</v>
       </c>
       <c r="F147" t="n">
-        <v>30</v>
+        <v>160.1</v>
       </c>
       <c r="G147" t="n">
-        <v>9183.75</v>
+        <v>9186.5</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,7 +4647,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9060</v>
+        <v>9065</v>
       </c>
       <c r="C148" t="n">
         <v>9065</v>
@@ -4213,15 +4656,18 @@
         <v>9065</v>
       </c>
       <c r="E148" t="n">
-        <v>9050</v>
+        <v>9065</v>
       </c>
       <c r="F148" t="n">
-        <v>109.9989</v>
+        <v>30</v>
       </c>
       <c r="G148" t="n">
-        <v>9181.25</v>
+        <v>9183.75</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9070</v>
+        <v>9060</v>
       </c>
       <c r="C149" t="n">
-        <v>9050</v>
+        <v>9065</v>
       </c>
       <c r="D149" t="n">
-        <v>9070</v>
+        <v>9065</v>
       </c>
       <c r="E149" t="n">
         <v>9050</v>
       </c>
       <c r="F149" t="n">
-        <v>5.0752</v>
+        <v>109.9989</v>
       </c>
       <c r="G149" t="n">
-        <v>9179</v>
+        <v>9181.25</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,10 +4705,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>9070</v>
+      </c>
+      <c r="C150" t="n">
         <v>9050</v>
-      </c>
-      <c r="C150" t="n">
-        <v>9055</v>
       </c>
       <c r="D150" t="n">
         <v>9070</v>
@@ -4268,12 +4717,15 @@
         <v>9050</v>
       </c>
       <c r="F150" t="n">
-        <v>646.3081</v>
+        <v>5.0752</v>
       </c>
       <c r="G150" t="n">
-        <v>9173.666666666666</v>
+        <v>9179</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9070</v>
+        <v>9050</v>
       </c>
       <c r="C151" t="n">
-        <v>9040</v>
+        <v>9055</v>
       </c>
       <c r="D151" t="n">
         <v>9070</v>
       </c>
       <c r="E151" t="n">
-        <v>9040</v>
+        <v>9050</v>
       </c>
       <c r="F151" t="n">
-        <v>91.39190000000001</v>
+        <v>646.3081</v>
       </c>
       <c r="G151" t="n">
-        <v>9170.5</v>
+        <v>9173.666666666666</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>9070</v>
+      </c>
+      <c r="C152" t="n">
         <v>9040</v>
-      </c>
-      <c r="C152" t="n">
-        <v>9025</v>
       </c>
       <c r="D152" t="n">
         <v>9070</v>
       </c>
       <c r="E152" t="n">
-        <v>9025</v>
+        <v>9040</v>
       </c>
       <c r="F152" t="n">
-        <v>555.3162</v>
+        <v>91.39190000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>9166.916666666666</v>
+        <v>9170.5</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9105</v>
+        <v>9040</v>
       </c>
       <c r="C153" t="n">
-        <v>9005</v>
+        <v>9025</v>
       </c>
       <c r="D153" t="n">
-        <v>9105</v>
+        <v>9070</v>
       </c>
       <c r="E153" t="n">
-        <v>9005</v>
+        <v>9025</v>
       </c>
       <c r="F153" t="n">
-        <v>61.2478</v>
+        <v>555.3162</v>
       </c>
       <c r="G153" t="n">
-        <v>9163</v>
+        <v>9166.916666666666</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9070</v>
+        <v>9105</v>
       </c>
       <c r="C154" t="n">
-        <v>9075</v>
+        <v>9005</v>
       </c>
       <c r="D154" t="n">
-        <v>9075</v>
+        <v>9105</v>
       </c>
       <c r="E154" t="n">
-        <v>9070</v>
+        <v>9005</v>
       </c>
       <c r="F154" t="n">
-        <v>48.7617</v>
+        <v>61.2478</v>
       </c>
       <c r="G154" t="n">
-        <v>9160.166666666666</v>
+        <v>9163</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9120</v>
+        <v>9070</v>
       </c>
       <c r="C155" t="n">
-        <v>9120</v>
+        <v>9075</v>
       </c>
       <c r="D155" t="n">
-        <v>9120</v>
+        <v>9075</v>
       </c>
       <c r="E155" t="n">
-        <v>9120</v>
+        <v>9070</v>
       </c>
       <c r="F155" t="n">
-        <v>1.09649122</v>
+        <v>48.7617</v>
       </c>
       <c r="G155" t="n">
-        <v>9156.666666666666</v>
+        <v>9160.166666666666</v>
       </c>
       <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>9120</v>
       </c>
       <c r="F156" t="n">
-        <v>302.00160878</v>
+        <v>1.09649122</v>
       </c>
       <c r="G156" t="n">
-        <v>9154.666666666666</v>
+        <v>9156.666666666666</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9080</v>
+        <v>9120</v>
       </c>
       <c r="C157" t="n">
-        <v>9060</v>
+        <v>9120</v>
       </c>
       <c r="D157" t="n">
-        <v>9080</v>
+        <v>9120</v>
       </c>
       <c r="E157" t="n">
-        <v>9060</v>
+        <v>9120</v>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>302.00160878</v>
       </c>
       <c r="G157" t="n">
-        <v>9151.666666666666</v>
+        <v>9154.666666666666</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9115</v>
+        <v>9080</v>
       </c>
       <c r="C158" t="n">
-        <v>9115</v>
+        <v>9060</v>
       </c>
       <c r="D158" t="n">
-        <v>9115</v>
+        <v>9080</v>
       </c>
       <c r="E158" t="n">
-        <v>9115</v>
+        <v>9060</v>
       </c>
       <c r="F158" t="n">
-        <v>0.10970927</v>
+        <v>20</v>
       </c>
       <c r="G158" t="n">
-        <v>9151.916666666666</v>
+        <v>9151.666666666666</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="C159" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="D159" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="E159" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="F159" t="n">
-        <v>1.08991825</v>
+        <v>0.10970927</v>
       </c>
       <c r="G159" t="n">
-        <v>9153.166666666666</v>
+        <v>9151.916666666666</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9080</v>
+        <v>9175</v>
       </c>
       <c r="C160" t="n">
-        <v>9080</v>
+        <v>9175</v>
       </c>
       <c r="D160" t="n">
-        <v>9080</v>
+        <v>9175</v>
       </c>
       <c r="E160" t="n">
-        <v>9080</v>
+        <v>9175</v>
       </c>
       <c r="F160" t="n">
-        <v>131.249</v>
+        <v>1.08991825</v>
       </c>
       <c r="G160" t="n">
-        <v>9151.75</v>
+        <v>9153.166666666666</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9085</v>
+        <v>9080</v>
       </c>
       <c r="C161" t="n">
         <v>9080</v>
       </c>
       <c r="D161" t="n">
-        <v>9085</v>
+        <v>9080</v>
       </c>
       <c r="E161" t="n">
         <v>9080</v>
       </c>
       <c r="F161" t="n">
-        <v>9.2881</v>
+        <v>131.249</v>
       </c>
       <c r="G161" t="n">
-        <v>9149.75</v>
+        <v>9151.75</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>9085</v>
+      </c>
+      <c r="C162" t="n">
         <v>9080</v>
       </c>
-      <c r="C162" t="n">
-        <v>9160</v>
-      </c>
       <c r="D162" t="n">
-        <v>9160</v>
+        <v>9085</v>
       </c>
       <c r="E162" t="n">
         <v>9080</v>
       </c>
       <c r="F162" t="n">
-        <v>20.1091703</v>
+        <v>9.2881</v>
       </c>
       <c r="G162" t="n">
-        <v>9147</v>
+        <v>9149.75</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4597,21 +5085,24 @@
         <v>9080</v>
       </c>
       <c r="C163" t="n">
-        <v>9080</v>
+        <v>9160</v>
       </c>
       <c r="D163" t="n">
-        <v>9080</v>
+        <v>9160</v>
       </c>
       <c r="E163" t="n">
         <v>9080</v>
       </c>
       <c r="F163" t="n">
-        <v>29.3296</v>
+        <v>20.1091703</v>
       </c>
       <c r="G163" t="n">
-        <v>9144.75</v>
+        <v>9147</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>9080</v>
       </c>
       <c r="F164" t="n">
-        <v>9.178800000000001</v>
+        <v>29.3296</v>
       </c>
       <c r="G164" t="n">
-        <v>9142.5</v>
+        <v>9144.75</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9085</v>
+        <v>9080</v>
       </c>
       <c r="C165" t="n">
         <v>9080</v>
       </c>
       <c r="D165" t="n">
-        <v>9085</v>
+        <v>9080</v>
       </c>
       <c r="E165" t="n">
         <v>9080</v>
       </c>
       <c r="F165" t="n">
-        <v>302.973</v>
+        <v>9.178800000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>9140.25</v>
+        <v>9142.5</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9100</v>
+        <v>9085</v>
       </c>
       <c r="C166" t="n">
         <v>9080</v>
       </c>
       <c r="D166" t="n">
-        <v>9100</v>
+        <v>9085</v>
       </c>
       <c r="E166" t="n">
         <v>9080</v>
       </c>
       <c r="F166" t="n">
-        <v>115.8272</v>
+        <v>302.973</v>
       </c>
       <c r="G166" t="n">
-        <v>9137.833333333334</v>
+        <v>9140.25</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4701,21 +5201,24 @@
         <v>9100</v>
       </c>
       <c r="C167" t="n">
-        <v>9100</v>
+        <v>9080</v>
       </c>
       <c r="D167" t="n">
         <v>9100</v>
       </c>
       <c r="E167" t="n">
-        <v>9100</v>
+        <v>9080</v>
       </c>
       <c r="F167" t="n">
-        <v>12.8611</v>
+        <v>115.8272</v>
       </c>
       <c r="G167" t="n">
-        <v>9135</v>
+        <v>9137.833333333334</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9110</v>
+        <v>9100</v>
       </c>
       <c r="C168" t="n">
         <v>9100</v>
       </c>
       <c r="D168" t="n">
-        <v>9110</v>
+        <v>9100</v>
       </c>
       <c r="E168" t="n">
         <v>9100</v>
       </c>
       <c r="F168" t="n">
-        <v>34</v>
+        <v>12.8611</v>
       </c>
       <c r="G168" t="n">
-        <v>9132.166666666666</v>
+        <v>9135</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="C169" t="n">
         <v>9100</v>
       </c>
       <c r="D169" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="E169" t="n">
         <v>9100</v>
       </c>
       <c r="F169" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G169" t="n">
-        <v>9129.75</v>
+        <v>9132.166666666666</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>9100</v>
       </c>
       <c r="F170" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G170" t="n">
-        <v>9128.666666666666</v>
+        <v>9129.75</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>9100</v>
       </c>
       <c r="F171" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G171" t="n">
-        <v>9127.083333333334</v>
+        <v>9128.666666666666</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>9100</v>
       </c>
       <c r="F172" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G172" t="n">
-        <v>9125.166666666666</v>
+        <v>9127.083333333334</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9180</v>
+        <v>9100</v>
       </c>
       <c r="C173" t="n">
-        <v>9185</v>
+        <v>9100</v>
       </c>
       <c r="D173" t="n">
-        <v>9185</v>
+        <v>9100</v>
       </c>
       <c r="E173" t="n">
-        <v>9180</v>
+        <v>9100</v>
       </c>
       <c r="F173" t="n">
-        <v>19.86673246</v>
+        <v>4</v>
       </c>
       <c r="G173" t="n">
-        <v>9124.083333333334</v>
+        <v>9125.166666666666</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9140</v>
+        <v>9180</v>
       </c>
       <c r="C174" t="n">
-        <v>9140</v>
+        <v>9185</v>
       </c>
       <c r="D174" t="n">
-        <v>9140</v>
+        <v>9185</v>
       </c>
       <c r="E174" t="n">
-        <v>9140</v>
+        <v>9180</v>
       </c>
       <c r="F174" t="n">
-        <v>40.9618</v>
+        <v>19.86673246</v>
       </c>
       <c r="G174" t="n">
-        <v>9123.083333333334</v>
+        <v>9124.083333333334</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9115</v>
+        <v>9140</v>
       </c>
       <c r="C175" t="n">
-        <v>9100</v>
+        <v>9140</v>
       </c>
       <c r="D175" t="n">
-        <v>9115</v>
+        <v>9140</v>
       </c>
       <c r="E175" t="n">
-        <v>9100</v>
+        <v>9140</v>
       </c>
       <c r="F175" t="n">
-        <v>196</v>
+        <v>40.9618</v>
       </c>
       <c r="G175" t="n">
-        <v>9122</v>
+        <v>9123.083333333334</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4935,21 +5462,24 @@
         <v>9115</v>
       </c>
       <c r="C176" t="n">
-        <v>9115</v>
+        <v>9100</v>
       </c>
       <c r="D176" t="n">
         <v>9115</v>
       </c>
       <c r="E176" t="n">
-        <v>9115</v>
+        <v>9100</v>
       </c>
       <c r="F176" t="n">
-        <v>4.7484</v>
+        <v>196</v>
       </c>
       <c r="G176" t="n">
-        <v>9121.166666666666</v>
+        <v>9122</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9105</v>
+        <v>9115</v>
       </c>
       <c r="C177" t="n">
-        <v>9085</v>
+        <v>9115</v>
       </c>
       <c r="D177" t="n">
-        <v>9105</v>
+        <v>9115</v>
       </c>
       <c r="E177" t="n">
-        <v>9085</v>
+        <v>9115</v>
       </c>
       <c r="F177" t="n">
-        <v>30</v>
+        <v>4.7484</v>
       </c>
       <c r="G177" t="n">
-        <v>9121.25</v>
+        <v>9121.166666666666</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="C178" t="n">
-        <v>9080</v>
+        <v>9085</v>
       </c>
       <c r="D178" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="E178" t="n">
-        <v>9080</v>
+        <v>9085</v>
       </c>
       <c r="F178" t="n">
-        <v>202.39</v>
+        <v>30</v>
       </c>
       <c r="G178" t="n">
-        <v>9120.833333333334</v>
+        <v>9121.25</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="C179" t="n">
         <v>9080</v>
       </c>
       <c r="D179" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="E179" t="n">
         <v>9080</v>
       </c>
       <c r="F179" t="n">
-        <v>197</v>
+        <v>202.39</v>
       </c>
       <c r="G179" t="n">
-        <v>9120.5</v>
+        <v>9120.833333333334</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>9080</v>
+        <v>9085</v>
       </c>
       <c r="C180" t="n">
         <v>9080</v>
       </c>
       <c r="D180" t="n">
-        <v>9080</v>
+        <v>9085</v>
       </c>
       <c r="E180" t="n">
         <v>9080</v>
       </c>
       <c r="F180" t="n">
-        <v>10.123</v>
+        <v>197</v>
       </c>
       <c r="G180" t="n">
-        <v>9119.583333333334</v>
+        <v>9120.5</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5074,12 +5616,15 @@
         <v>9080</v>
       </c>
       <c r="F181" t="n">
-        <v>2.44</v>
+        <v>10.123</v>
       </c>
       <c r="G181" t="n">
-        <v>9119.666666666666</v>
+        <v>9119.583333333334</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,7 +5633,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9070</v>
+        <v>9080</v>
       </c>
       <c r="C182" t="n">
         <v>9080</v>
@@ -5097,15 +5642,18 @@
         <v>9080</v>
       </c>
       <c r="E182" t="n">
-        <v>9070</v>
+        <v>9080</v>
       </c>
       <c r="F182" t="n">
-        <v>10.4369</v>
+        <v>2.44</v>
       </c>
       <c r="G182" t="n">
-        <v>9119.833333333334</v>
+        <v>9119.666666666666</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>9090</v>
+        <v>9070</v>
       </c>
       <c r="C183" t="n">
         <v>9080</v>
       </c>
       <c r="D183" t="n">
-        <v>9090</v>
+        <v>9080</v>
       </c>
       <c r="E183" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="F183" t="n">
-        <v>338.5259</v>
+        <v>10.4369</v>
       </c>
       <c r="G183" t="n">
-        <v>9119.25</v>
+        <v>9119.833333333334</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>9085</v>
+        <v>9090</v>
       </c>
       <c r="C184" t="n">
-        <v>9105</v>
+        <v>9080</v>
       </c>
       <c r="D184" t="n">
-        <v>9105</v>
+        <v>9090</v>
       </c>
       <c r="E184" t="n">
-        <v>9085</v>
+        <v>9080</v>
       </c>
       <c r="F184" t="n">
-        <v>4.5414</v>
+        <v>338.5259</v>
       </c>
       <c r="G184" t="n">
-        <v>9119.75</v>
+        <v>9119.25</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9060</v>
+        <v>9085</v>
       </c>
       <c r="C185" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D185" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="E185" t="n">
-        <v>9040</v>
+        <v>9085</v>
       </c>
       <c r="F185" t="n">
-        <v>33.1399</v>
+        <v>4.5414</v>
       </c>
       <c r="G185" t="n">
-        <v>9119.333333333334</v>
+        <v>9119.75</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>9085</v>
+        <v>9060</v>
       </c>
       <c r="C186" t="n">
-        <v>9080</v>
+        <v>9100</v>
       </c>
       <c r="D186" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="E186" t="n">
-        <v>9080</v>
+        <v>9040</v>
       </c>
       <c r="F186" t="n">
-        <v>36.51387622</v>
+        <v>33.1399</v>
       </c>
       <c r="G186" t="n">
-        <v>9118.916666666666</v>
+        <v>9119.333333333334</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9040</v>
+        <v>9085</v>
       </c>
       <c r="C187" t="n">
-        <v>9025</v>
+        <v>9080</v>
       </c>
       <c r="D187" t="n">
-        <v>9040</v>
+        <v>9085</v>
       </c>
       <c r="E187" t="n">
-        <v>9025</v>
+        <v>9080</v>
       </c>
       <c r="F187" t="n">
-        <v>65.3481</v>
+        <v>36.51387622</v>
       </c>
       <c r="G187" t="n">
-        <v>9118.083333333334</v>
+        <v>9118.916666666666</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>9030</v>
+        <v>9040</v>
       </c>
       <c r="C188" t="n">
-        <v>9030</v>
+        <v>9025</v>
       </c>
       <c r="D188" t="n">
-        <v>9030</v>
+        <v>9040</v>
       </c>
       <c r="E188" t="n">
         <v>9025</v>
       </c>
       <c r="F188" t="n">
-        <v>981.6558</v>
+        <v>65.3481</v>
       </c>
       <c r="G188" t="n">
-        <v>9116.833333333334</v>
+        <v>9118.083333333334</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5273,7 +5839,7 @@
         <v>9030</v>
       </c>
       <c r="C189" t="n">
-        <v>9025</v>
+        <v>9030</v>
       </c>
       <c r="D189" t="n">
         <v>9030</v>
@@ -5282,12 +5848,15 @@
         <v>9025</v>
       </c>
       <c r="F189" t="n">
-        <v>1464.2191</v>
+        <v>981.6558</v>
       </c>
       <c r="G189" t="n">
-        <v>9115.583333333334</v>
+        <v>9116.833333333334</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9060</v>
+        <v>9030</v>
       </c>
       <c r="C190" t="n">
-        <v>9060</v>
+        <v>9025</v>
       </c>
       <c r="D190" t="n">
-        <v>9060</v>
+        <v>9030</v>
       </c>
       <c r="E190" t="n">
-        <v>9060</v>
+        <v>9025</v>
       </c>
       <c r="F190" t="n">
-        <v>17.8073</v>
+        <v>1464.2191</v>
       </c>
       <c r="G190" t="n">
-        <v>9115.333333333334</v>
+        <v>9115.583333333334</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>9045</v>
+        <v>9060</v>
       </c>
       <c r="C191" t="n">
-        <v>9045</v>
+        <v>9060</v>
       </c>
       <c r="D191" t="n">
-        <v>9045</v>
+        <v>9060</v>
       </c>
       <c r="E191" t="n">
-        <v>9045</v>
+        <v>9060</v>
       </c>
       <c r="F191" t="n">
-        <v>3.8322</v>
+        <v>17.8073</v>
       </c>
       <c r="G191" t="n">
-        <v>9112.5</v>
+        <v>9115.333333333334</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>9045</v>
       </c>
       <c r="F192" t="n">
-        <v>5</v>
+        <v>3.8322</v>
       </c>
       <c r="G192" t="n">
-        <v>9108.416666666666</v>
+        <v>9112.5</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9020</v>
+        <v>9045</v>
       </c>
       <c r="C193" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="D193" t="n">
-        <v>9020</v>
+        <v>9045</v>
       </c>
       <c r="E193" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="F193" t="n">
-        <v>207.9194</v>
+        <v>5</v>
       </c>
       <c r="G193" t="n">
-        <v>9106.166666666666</v>
+        <v>9108.416666666666</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="C194" t="n">
         <v>9015</v>
       </c>
       <c r="D194" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="E194" t="n">
         <v>9015</v>
       </c>
       <c r="F194" t="n">
-        <v>879.0207</v>
+        <v>207.9194</v>
       </c>
       <c r="G194" t="n">
-        <v>9102.166666666666</v>
+        <v>9106.166666666666</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>9045</v>
+        <v>9015</v>
       </c>
       <c r="C195" t="n">
-        <v>9045</v>
+        <v>9015</v>
       </c>
       <c r="D195" t="n">
-        <v>9045</v>
+        <v>9015</v>
       </c>
       <c r="E195" t="n">
-        <v>9045</v>
+        <v>9015</v>
       </c>
       <c r="F195" t="n">
-        <v>0.1363184</v>
+        <v>879.0207</v>
       </c>
       <c r="G195" t="n">
-        <v>9097.833333333334</v>
+        <v>9102.166666666666</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5455,21 +6042,24 @@
         <v>9045</v>
       </c>
       <c r="C196" t="n">
-        <v>9050</v>
+        <v>9045</v>
       </c>
       <c r="D196" t="n">
-        <v>9050</v>
+        <v>9045</v>
       </c>
       <c r="E196" t="n">
         <v>9045</v>
       </c>
       <c r="F196" t="n">
-        <v>79.21038160000001</v>
+        <v>0.1363184</v>
       </c>
       <c r="G196" t="n">
-        <v>9095.416666666666</v>
+        <v>9097.833333333334</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>9055</v>
+        <v>9045</v>
       </c>
       <c r="C197" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D197" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="E197" t="n">
-        <v>9055</v>
+        <v>9045</v>
       </c>
       <c r="F197" t="n">
-        <v>13.3669</v>
+        <v>79.21038160000001</v>
       </c>
       <c r="G197" t="n">
-        <v>9091.916666666666</v>
+        <v>9095.416666666666</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>9050</v>
+        <v>9055</v>
       </c>
       <c r="C198" t="n">
-        <v>9050</v>
+        <v>9055</v>
       </c>
       <c r="D198" t="n">
-        <v>9050</v>
+        <v>9055</v>
       </c>
       <c r="E198" t="n">
-        <v>9050</v>
+        <v>9055</v>
       </c>
       <c r="F198" t="n">
-        <v>1.84e-05</v>
+        <v>13.3669</v>
       </c>
       <c r="G198" t="n">
-        <v>9091.25</v>
+        <v>9091.916666666666</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="C199" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D199" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="E199" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F199" t="n">
-        <v>11.46217559</v>
+        <v>1.84e-05</v>
       </c>
       <c r="G199" t="n">
-        <v>9087.916666666666</v>
+        <v>9091.25</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>9020</v>
+        <v>9055</v>
       </c>
       <c r="C200" t="n">
-        <v>9020</v>
+        <v>9055</v>
       </c>
       <c r="D200" t="n">
-        <v>9020</v>
+        <v>9055</v>
       </c>
       <c r="E200" t="n">
-        <v>9020</v>
+        <v>9055</v>
       </c>
       <c r="F200" t="n">
-        <v>47.0336</v>
+        <v>11.46217559</v>
       </c>
       <c r="G200" t="n">
-        <v>9084</v>
+        <v>9087.916666666666</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5585,21 +6187,24 @@
         <v>9020</v>
       </c>
       <c r="C201" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="D201" t="n">
         <v>9020</v>
       </c>
       <c r="E201" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="F201" t="n">
-        <v>575.8493999999999</v>
+        <v>47.0336</v>
       </c>
       <c r="G201" t="n">
-        <v>9079.083333333334</v>
+        <v>9084</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="C202" t="n">
         <v>9000</v>
       </c>
       <c r="D202" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="E202" t="n">
         <v>9000</v>
       </c>
       <c r="F202" t="n">
-        <v>36.9634</v>
+        <v>575.8493999999999</v>
       </c>
       <c r="G202" t="n">
-        <v>9076</v>
+        <v>9079.083333333334</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>9020</v>
+        <v>9000</v>
       </c>
       <c r="C203" t="n">
-        <v>9020</v>
+        <v>9000</v>
       </c>
       <c r="D203" t="n">
-        <v>9020</v>
+        <v>9000</v>
       </c>
       <c r="E203" t="n">
-        <v>9020</v>
+        <v>9000</v>
       </c>
       <c r="F203" t="n">
-        <v>7.8103</v>
+        <v>36.9634</v>
       </c>
       <c r="G203" t="n">
-        <v>9074.75</v>
+        <v>9076</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,21 +6274,24 @@
         <v>9020</v>
       </c>
       <c r="C204" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="D204" t="n">
         <v>9020</v>
       </c>
       <c r="E204" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="F204" t="n">
-        <v>20</v>
+        <v>7.8103</v>
       </c>
       <c r="G204" t="n">
-        <v>9073.916666666666</v>
+        <v>9074.75</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="C205" t="n">
         <v>9015</v>
       </c>
       <c r="D205" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="E205" t="n">
         <v>9015</v>
       </c>
       <c r="F205" t="n">
-        <v>5.6707</v>
+        <v>20</v>
       </c>
       <c r="G205" t="n">
-        <v>9071.083333333334</v>
+        <v>9073.916666666666</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5724,12 +6341,15 @@
         <v>9015</v>
       </c>
       <c r="F206" t="n">
-        <v>10.165</v>
+        <v>5.6707</v>
       </c>
       <c r="G206" t="n">
-        <v>9070</v>
+        <v>9071.083333333334</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>9015</v>
       </c>
       <c r="F207" t="n">
-        <v>148.3237</v>
+        <v>10.165</v>
       </c>
       <c r="G207" t="n">
-        <v>9069.166666666666</v>
+        <v>9070</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5776,12 +6399,15 @@
         <v>9015</v>
       </c>
       <c r="F208" t="n">
-        <v>2</v>
+        <v>148.3237</v>
       </c>
       <c r="G208" t="n">
-        <v>9068.333333333334</v>
+        <v>9069.166666666666</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5802,12 +6428,15 @@
         <v>9015</v>
       </c>
       <c r="F209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G209" t="n">
-        <v>9067.75</v>
+        <v>9068.333333333334</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>9075</v>
+        <v>9015</v>
       </c>
       <c r="C210" t="n">
-        <v>9075</v>
+        <v>9015</v>
       </c>
       <c r="D210" t="n">
-        <v>9075</v>
+        <v>9015</v>
       </c>
       <c r="E210" t="n">
-        <v>9075</v>
+        <v>9015</v>
       </c>
       <c r="F210" t="n">
-        <v>34.0256</v>
+        <v>4</v>
       </c>
       <c r="G210" t="n">
-        <v>9068.083333333334</v>
+        <v>9067.75</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>9080</v>
+        <v>9075</v>
       </c>
       <c r="C211" t="n">
-        <v>9080</v>
+        <v>9075</v>
       </c>
       <c r="D211" t="n">
-        <v>9080</v>
+        <v>9075</v>
       </c>
       <c r="E211" t="n">
-        <v>9080</v>
+        <v>9075</v>
       </c>
       <c r="F211" t="n">
-        <v>51.1729</v>
+        <v>34.0256</v>
       </c>
       <c r="G211" t="n">
-        <v>9068.75</v>
+        <v>9068.083333333334</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>9020</v>
+        <v>9080</v>
       </c>
       <c r="C212" t="n">
-        <v>9020</v>
+        <v>9080</v>
       </c>
       <c r="D212" t="n">
-        <v>9020</v>
+        <v>9080</v>
       </c>
       <c r="E212" t="n">
-        <v>9020</v>
+        <v>9080</v>
       </c>
       <c r="F212" t="n">
-        <v>4</v>
+        <v>51.1729</v>
       </c>
       <c r="G212" t="n">
-        <v>9068.666666666666</v>
+        <v>9068.75</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>9020</v>
       </c>
       <c r="F213" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G213" t="n">
-        <v>9068.916666666666</v>
+        <v>9068.666666666666</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="C214" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="D214" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="E214" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="F214" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G214" t="n">
-        <v>9068.083333333334</v>
+        <v>9068.916666666666</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5958,12 +6602,15 @@
         <v>9025</v>
       </c>
       <c r="F215" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G215" t="n">
-        <v>9066.5</v>
+        <v>9068.083333333334</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,12 +6631,15 @@
         <v>9025</v>
       </c>
       <c r="F216" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G216" t="n">
-        <v>9064.916666666666</v>
+        <v>9066.5</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6007,15 +6657,18 @@
         <v>9025</v>
       </c>
       <c r="E217" t="n">
-        <v>9020</v>
+        <v>9025</v>
       </c>
       <c r="F217" t="n">
-        <v>35.15</v>
+        <v>10</v>
       </c>
       <c r="G217" t="n">
-        <v>9064.333333333334</v>
+        <v>9064.916666666666</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>9030</v>
+        <v>9025</v>
       </c>
       <c r="C218" t="n">
         <v>9025</v>
       </c>
       <c r="D218" t="n">
-        <v>9030</v>
+        <v>9025</v>
       </c>
       <c r="E218" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="F218" t="n">
-        <v>8</v>
+        <v>35.15</v>
       </c>
       <c r="G218" t="n">
-        <v>9062.833333333334</v>
+        <v>9064.333333333334</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>9030</v>
+      </c>
+      <c r="C219" t="n">
         <v>9025</v>
       </c>
-      <c r="C219" t="n">
-        <v>8985</v>
-      </c>
       <c r="D219" t="n">
+        <v>9030</v>
+      </c>
+      <c r="E219" t="n">
         <v>9025</v>
       </c>
-      <c r="E219" t="n">
-        <v>8985</v>
-      </c>
       <c r="F219" t="n">
-        <v>457.3454</v>
+        <v>8</v>
       </c>
       <c r="G219" t="n">
-        <v>9059.666666666666</v>
+        <v>9062.833333333334</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>9070</v>
+        <v>9025</v>
       </c>
       <c r="C220" t="n">
-        <v>9080</v>
+        <v>8985</v>
       </c>
       <c r="D220" t="n">
-        <v>9080</v>
+        <v>9025</v>
       </c>
       <c r="E220" t="n">
-        <v>9070</v>
+        <v>8985</v>
       </c>
       <c r="F220" t="n">
-        <v>300</v>
+        <v>457.3454</v>
       </c>
       <c r="G220" t="n">
         <v>9059.666666666666</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,7 +6764,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="C221" t="n">
         <v>9080</v>
@@ -6111,15 +6773,18 @@
         <v>9080</v>
       </c>
       <c r="E221" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="F221" t="n">
-        <v>103.8446</v>
+        <v>300</v>
       </c>
       <c r="G221" t="n">
         <v>9059.666666666666</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6140,12 +6805,15 @@
         <v>9080</v>
       </c>
       <c r="F222" t="n">
-        <v>21.9999</v>
+        <v>103.8446</v>
       </c>
       <c r="G222" t="n">
-        <v>9058.333333333334</v>
+        <v>9059.666666666666</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>9045</v>
+        <v>9080</v>
       </c>
       <c r="C223" t="n">
-        <v>9045</v>
+        <v>9080</v>
       </c>
       <c r="D223" t="n">
-        <v>9045</v>
+        <v>9080</v>
       </c>
       <c r="E223" t="n">
-        <v>9045</v>
+        <v>9080</v>
       </c>
       <c r="F223" t="n">
-        <v>30</v>
+        <v>21.9999</v>
       </c>
       <c r="G223" t="n">
-        <v>9057.75</v>
+        <v>9058.333333333334</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="C224" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="D224" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="E224" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="F224" t="n">
-        <v>189.1634</v>
+        <v>30</v>
       </c>
       <c r="G224" t="n">
-        <v>9056.416666666666</v>
+        <v>9057.75</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
+        <v>9015</v>
+      </c>
+      <c r="C225" t="n">
         <v>9000</v>
       </c>
-      <c r="C225" t="n">
-        <v>9045</v>
-      </c>
       <c r="D225" t="n">
-        <v>9045</v>
+        <v>9015</v>
       </c>
       <c r="E225" t="n">
         <v>9000</v>
       </c>
       <c r="F225" t="n">
-        <v>68.7051</v>
+        <v>189.1634</v>
       </c>
       <c r="G225" t="n">
-        <v>9055.833333333334</v>
+        <v>9056.416666666666</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="C226" t="n">
-        <v>8995</v>
+        <v>9045</v>
       </c>
       <c r="D226" t="n">
-        <v>8995</v>
+        <v>9045</v>
       </c>
       <c r="E226" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="F226" t="n">
-        <v>42.5781</v>
+        <v>68.7051</v>
       </c>
       <c r="G226" t="n">
-        <v>9054.416666666666</v>
+        <v>9055.833333333334</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>9010</v>
+        <v>8995</v>
       </c>
       <c r="C227" t="n">
-        <v>9020</v>
+        <v>8995</v>
       </c>
       <c r="D227" t="n">
-        <v>9020</v>
+        <v>8995</v>
       </c>
       <c r="E227" t="n">
-        <v>8990</v>
+        <v>8995</v>
       </c>
       <c r="F227" t="n">
-        <v>606.9857</v>
+        <v>42.5781</v>
       </c>
       <c r="G227" t="n">
-        <v>9053.083333333334</v>
+        <v>9054.416666666666</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>9080</v>
+        <v>9010</v>
       </c>
       <c r="C228" t="n">
-        <v>9180</v>
+        <v>9020</v>
       </c>
       <c r="D228" t="n">
-        <v>9180</v>
+        <v>9020</v>
       </c>
       <c r="E228" t="n">
-        <v>9080</v>
+        <v>8990</v>
       </c>
       <c r="F228" t="n">
-        <v>0.1</v>
+        <v>606.9857</v>
       </c>
       <c r="G228" t="n">
-        <v>9054.416666666666</v>
+        <v>9053.083333333334</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>9000</v>
+        <v>9080</v>
       </c>
       <c r="C229" t="n">
-        <v>9000</v>
+        <v>9180</v>
       </c>
       <c r="D229" t="n">
-        <v>9000</v>
+        <v>9180</v>
       </c>
       <c r="E229" t="n">
-        <v>9000</v>
+        <v>9080</v>
       </c>
       <c r="F229" t="n">
-        <v>112</v>
+        <v>0.1</v>
       </c>
       <c r="G229" t="n">
-        <v>9052.75</v>
+        <v>9054.416666666666</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6339,21 +7028,24 @@
         <v>9000</v>
       </c>
       <c r="C230" t="n">
-        <v>9005</v>
+        <v>9000</v>
       </c>
       <c r="D230" t="n">
-        <v>9005</v>
+        <v>9000</v>
       </c>
       <c r="E230" t="n">
         <v>9000</v>
       </c>
       <c r="F230" t="n">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="G230" t="n">
-        <v>9051.166666666666</v>
+        <v>9052.75</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6365,21 +7057,24 @@
         <v>9000</v>
       </c>
       <c r="C231" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="D231" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="E231" t="n">
         <v>9000</v>
       </c>
       <c r="F231" t="n">
-        <v>107.2982</v>
+        <v>76</v>
       </c>
       <c r="G231" t="n">
-        <v>9049.5</v>
+        <v>9051.166666666666</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="C232" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="D232" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="E232" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="F232" t="n">
-        <v>0.1</v>
+        <v>107.2982</v>
       </c>
       <c r="G232" t="n">
-        <v>9049.583333333334</v>
+        <v>9049.5</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>9050</v>
+        <v>9105</v>
       </c>
       <c r="C233" t="n">
-        <v>9050</v>
+        <v>9105</v>
       </c>
       <c r="D233" t="n">
-        <v>9050</v>
+        <v>9105</v>
       </c>
       <c r="E233" t="n">
-        <v>9050</v>
+        <v>9105</v>
       </c>
       <c r="F233" t="n">
-        <v>70</v>
+        <v>0.1</v>
       </c>
       <c r="G233" t="n">
-        <v>9047.333333333334</v>
+        <v>9049.583333333334</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6443,21 +7144,24 @@
         <v>9050</v>
       </c>
       <c r="C234" t="n">
-        <v>9005</v>
+        <v>9050</v>
       </c>
       <c r="D234" t="n">
         <v>9050</v>
       </c>
       <c r="E234" t="n">
-        <v>9005</v>
+        <v>9050</v>
       </c>
       <c r="F234" t="n">
-        <v>114.4475</v>
+        <v>70</v>
       </c>
       <c r="G234" t="n">
-        <v>9045.083333333334</v>
+        <v>9047.333333333334</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>9150</v>
+        <v>9050</v>
       </c>
       <c r="C235" t="n">
-        <v>9150</v>
+        <v>9005</v>
       </c>
       <c r="D235" t="n">
-        <v>9150</v>
+        <v>9050</v>
       </c>
       <c r="E235" t="n">
-        <v>9150</v>
+        <v>9005</v>
       </c>
       <c r="F235" t="n">
-        <v>0.1</v>
+        <v>114.4475</v>
       </c>
       <c r="G235" t="n">
-        <v>9045.916666666666</v>
+        <v>9045.083333333334</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>9050</v>
+        <v>9150</v>
       </c>
       <c r="C236" t="n">
-        <v>9050</v>
+        <v>9150</v>
       </c>
       <c r="D236" t="n">
-        <v>9050</v>
+        <v>9150</v>
       </c>
       <c r="E236" t="n">
-        <v>9050</v>
+        <v>9150</v>
       </c>
       <c r="F236" t="n">
-        <v>74.8507</v>
+        <v>0.1</v>
       </c>
       <c r="G236" t="n">
-        <v>9044.833333333334</v>
+        <v>9045.916666666666</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>9035</v>
+        <v>9050</v>
       </c>
       <c r="C237" t="n">
-        <v>9035</v>
+        <v>9050</v>
       </c>
       <c r="D237" t="n">
-        <v>9035</v>
+        <v>9050</v>
       </c>
       <c r="E237" t="n">
-        <v>9035</v>
+        <v>9050</v>
       </c>
       <c r="F237" t="n">
-        <v>44.4871</v>
+        <v>74.8507</v>
       </c>
       <c r="G237" t="n">
-        <v>9044</v>
+        <v>9044.833333333334</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>9050</v>
+        <v>9035</v>
       </c>
       <c r="C238" t="n">
-        <v>9050</v>
+        <v>9035</v>
       </c>
       <c r="D238" t="n">
-        <v>9050</v>
+        <v>9035</v>
       </c>
       <c r="E238" t="n">
-        <v>9050</v>
+        <v>9035</v>
       </c>
       <c r="F238" t="n">
-        <v>38.3779</v>
+        <v>44.4871</v>
       </c>
       <c r="G238" t="n">
-        <v>9043.5</v>
+        <v>9044</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>9140</v>
+        <v>9050</v>
       </c>
       <c r="C239" t="n">
-        <v>9045</v>
+        <v>9050</v>
       </c>
       <c r="D239" t="n">
-        <v>9140</v>
+        <v>9050</v>
       </c>
       <c r="E239" t="n">
-        <v>9045</v>
+        <v>9050</v>
       </c>
       <c r="F239" t="n">
-        <v>1.28</v>
+        <v>38.3779</v>
       </c>
       <c r="G239" t="n">
-        <v>9042.916666666666</v>
+        <v>9043.5</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>9050</v>
+        <v>9140</v>
       </c>
       <c r="C240" t="n">
         <v>9045</v>
       </c>
       <c r="D240" t="n">
-        <v>9050</v>
+        <v>9140</v>
       </c>
       <c r="E240" t="n">
         <v>9045</v>
       </c>
       <c r="F240" t="n">
-        <v>29.9752</v>
+        <v>1.28</v>
       </c>
       <c r="G240" t="n">
-        <v>9042.333333333334</v>
+        <v>9042.916666666666</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>9020</v>
+        <v>9050</v>
       </c>
       <c r="C241" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="D241" t="n">
-        <v>9020</v>
+        <v>9050</v>
       </c>
       <c r="E241" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="F241" t="n">
-        <v>233.4569</v>
+        <v>29.9752</v>
       </c>
       <c r="G241" t="n">
-        <v>9041.25</v>
+        <v>9042.333333333334</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="C242" t="n">
-        <v>8995</v>
+        <v>9015</v>
       </c>
       <c r="D242" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="E242" t="n">
-        <v>8995</v>
+        <v>9015</v>
       </c>
       <c r="F242" t="n">
-        <v>16</v>
+        <v>233.4569</v>
       </c>
       <c r="G242" t="n">
-        <v>9039.833333333334</v>
+        <v>9041.25</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>9035</v>
+        <v>9000</v>
       </c>
       <c r="C243" t="n">
-        <v>9040</v>
+        <v>8995</v>
       </c>
       <c r="D243" t="n">
-        <v>9040</v>
+        <v>9000</v>
       </c>
       <c r="E243" t="n">
-        <v>9035</v>
+        <v>8995</v>
       </c>
       <c r="F243" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="G243" t="n">
-        <v>9039.166666666666</v>
+        <v>9039.833333333334</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,7 +7431,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>9040</v>
+        <v>9035</v>
       </c>
       <c r="C244" t="n">
         <v>9040</v>
@@ -6709,15 +7440,18 @@
         <v>9040</v>
       </c>
       <c r="E244" t="n">
-        <v>9040</v>
+        <v>9035</v>
       </c>
       <c r="F244" t="n">
-        <v>268.0588</v>
+        <v>68</v>
       </c>
       <c r="G244" t="n">
-        <v>9038.083333333334</v>
+        <v>9039.166666666666</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>9175</v>
+        <v>9040</v>
       </c>
       <c r="C245" t="n">
-        <v>9175</v>
+        <v>9040</v>
       </c>
       <c r="D245" t="n">
-        <v>9175</v>
+        <v>9040</v>
       </c>
       <c r="E245" t="n">
-        <v>9175</v>
+        <v>9040</v>
       </c>
       <c r="F245" t="n">
-        <v>12.1549</v>
+        <v>268.0588</v>
       </c>
       <c r="G245" t="n">
-        <v>9039.333333333334</v>
+        <v>9038.083333333334</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6764,12 +7501,15 @@
         <v>9175</v>
       </c>
       <c r="F246" t="n">
-        <v>24</v>
+        <v>12.1549</v>
       </c>
       <c r="G246" t="n">
-        <v>9040.916666666666</v>
+        <v>9039.333333333334</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6790,12 +7530,15 @@
         <v>9175</v>
       </c>
       <c r="F247" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G247" t="n">
-        <v>9043.416666666666</v>
+        <v>9040.916666666666</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="C248" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="D248" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="E248" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="F248" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G248" t="n">
-        <v>9045.75</v>
+        <v>9043.416666666666</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6833,21 +7579,24 @@
         <v>9170</v>
       </c>
       <c r="C249" t="n">
-        <v>9240</v>
+        <v>9170</v>
       </c>
       <c r="D249" t="n">
-        <v>9240</v>
+        <v>9170</v>
       </c>
       <c r="E249" t="n">
         <v>9170</v>
       </c>
       <c r="F249" t="n">
-        <v>37.99849242</v>
+        <v>13</v>
       </c>
       <c r="G249" t="n">
-        <v>9049.333333333334</v>
+        <v>9045.75</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>9110</v>
+        <v>9170</v>
       </c>
       <c r="C250" t="n">
-        <v>9100</v>
+        <v>9240</v>
       </c>
       <c r="D250" t="n">
-        <v>9130</v>
+        <v>9240</v>
       </c>
       <c r="E250" t="n">
-        <v>9100</v>
+        <v>9170</v>
       </c>
       <c r="F250" t="n">
-        <v>49</v>
+        <v>37.99849242</v>
       </c>
       <c r="G250" t="n">
-        <v>9050</v>
+        <v>9049.333333333334</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>9135</v>
+        <v>9110</v>
       </c>
       <c r="C251" t="n">
+        <v>9100</v>
+      </c>
+      <c r="D251" t="n">
         <v>9130</v>
       </c>
-      <c r="D251" t="n">
-        <v>9135</v>
-      </c>
       <c r="E251" t="n">
-        <v>9130</v>
+        <v>9100</v>
       </c>
       <c r="F251" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G251" t="n">
-        <v>9051.416666666666</v>
+        <v>9050</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>9130</v>
+        <v>9135</v>
       </c>
       <c r="C252" t="n">
         <v>9130</v>
       </c>
       <c r="D252" t="n">
-        <v>9195</v>
+        <v>9135</v>
       </c>
       <c r="E252" t="n">
         <v>9130</v>
       </c>
       <c r="F252" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G252" t="n">
-        <v>9052.833333333334</v>
+        <v>9051.416666666666</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6937,21 +7695,24 @@
         <v>9130</v>
       </c>
       <c r="C253" t="n">
-        <v>9110</v>
+        <v>9130</v>
       </c>
       <c r="D253" t="n">
+        <v>9195</v>
+      </c>
+      <c r="E253" t="n">
         <v>9130</v>
       </c>
-      <c r="E253" t="n">
-        <v>9110</v>
-      </c>
       <c r="F253" t="n">
-        <v>95.3246</v>
+        <v>30</v>
       </c>
       <c r="G253" t="n">
-        <v>9054.416666666666</v>
+        <v>9052.833333333334</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>9100</v>
+        <v>9130</v>
       </c>
       <c r="C254" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="D254" t="n">
-        <v>9100</v>
+        <v>9130</v>
       </c>
       <c r="E254" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="F254" t="n">
-        <v>50.0736</v>
+        <v>95.3246</v>
       </c>
       <c r="G254" t="n">
-        <v>9055.833333333334</v>
+        <v>9054.416666666666</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>9105</v>
+        <v>9100</v>
       </c>
       <c r="C255" t="n">
-        <v>9105</v>
+        <v>9100</v>
       </c>
       <c r="D255" t="n">
-        <v>9105</v>
+        <v>9100</v>
       </c>
       <c r="E255" t="n">
-        <v>9105</v>
+        <v>9100</v>
       </c>
       <c r="F255" t="n">
-        <v>10</v>
+        <v>50.0736</v>
       </c>
       <c r="G255" t="n">
-        <v>9056.833333333334</v>
+        <v>9055.833333333334</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7015,21 +7782,24 @@
         <v>9105</v>
       </c>
       <c r="C256" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D256" t="n">
         <v>9105</v>
       </c>
       <c r="E256" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="F256" t="n">
-        <v>29.4039</v>
+        <v>10</v>
       </c>
       <c r="G256" t="n">
-        <v>9057.666666666666</v>
+        <v>9056.833333333334</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,24 +7808,27 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>9095</v>
+        <v>9105</v>
       </c>
       <c r="C257" t="n">
-        <v>9075</v>
+        <v>9100</v>
       </c>
       <c r="D257" t="n">
-        <v>9095</v>
+        <v>9105</v>
       </c>
       <c r="E257" t="n">
-        <v>9075</v>
+        <v>9100</v>
       </c>
       <c r="F257" t="n">
-        <v>4</v>
+        <v>29.4039</v>
       </c>
       <c r="G257" t="n">
-        <v>9058</v>
+        <v>9057.666666666666</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>9095</v>
+      </c>
+      <c r="C258" t="n">
         <v>9075</v>
       </c>
-      <c r="C258" t="n">
-        <v>9065</v>
-      </c>
       <c r="D258" t="n">
+        <v>9095</v>
+      </c>
+      <c r="E258" t="n">
         <v>9075</v>
       </c>
-      <c r="E258" t="n">
-        <v>9065</v>
-      </c>
       <c r="F258" t="n">
-        <v>256.5973</v>
+        <v>4</v>
       </c>
       <c r="G258" t="n">
-        <v>9058.25</v>
+        <v>9058</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>9035</v>
+        <v>9075</v>
       </c>
       <c r="C259" t="n">
-        <v>9035</v>
+        <v>9065</v>
       </c>
       <c r="D259" t="n">
-        <v>9035</v>
+        <v>9075</v>
       </c>
       <c r="E259" t="n">
-        <v>9035</v>
+        <v>9065</v>
       </c>
       <c r="F259" t="n">
-        <v>4</v>
+        <v>256.5973</v>
       </c>
       <c r="G259" t="n">
-        <v>9057.916666666666</v>
+        <v>9058.25</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7128,12 +7907,15 @@
         <v>9035</v>
       </c>
       <c r="F260" t="n">
-        <v>63.5</v>
+        <v>4</v>
       </c>
       <c r="G260" t="n">
-        <v>9058.166666666666</v>
+        <v>9057.916666666666</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7154,12 +7936,15 @@
         <v>9035</v>
       </c>
       <c r="F261" t="n">
-        <v>54.5</v>
+        <v>63.5</v>
       </c>
       <c r="G261" t="n">
-        <v>9058.75</v>
+        <v>9058.166666666666</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7171,21 +7956,24 @@
         <v>9035</v>
       </c>
       <c r="C262" t="n">
-        <v>9030</v>
+        <v>9035</v>
       </c>
       <c r="D262" t="n">
         <v>9035</v>
       </c>
       <c r="E262" t="n">
-        <v>9030</v>
+        <v>9035</v>
       </c>
       <c r="F262" t="n">
-        <v>102.5</v>
+        <v>54.5</v>
       </c>
       <c r="G262" t="n">
-        <v>9059.25</v>
+        <v>9058.75</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,24 +7982,27 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>9010</v>
+        <v>9035</v>
       </c>
       <c r="C263" t="n">
-        <v>9010</v>
+        <v>9030</v>
       </c>
       <c r="D263" t="n">
-        <v>9010</v>
+        <v>9035</v>
       </c>
       <c r="E263" t="n">
-        <v>9010</v>
+        <v>9030</v>
       </c>
       <c r="F263" t="n">
-        <v>35</v>
+        <v>102.5</v>
       </c>
       <c r="G263" t="n">
-        <v>9059.083333333334</v>
+        <v>9059.25</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7223,21 +8014,24 @@
         <v>9010</v>
       </c>
       <c r="C264" t="n">
-        <v>9005</v>
+        <v>9010</v>
       </c>
       <c r="D264" t="n">
         <v>9010</v>
       </c>
       <c r="E264" t="n">
-        <v>9005</v>
+        <v>9010</v>
       </c>
       <c r="F264" t="n">
-        <v>141.5</v>
+        <v>35</v>
       </c>
       <c r="G264" t="n">
-        <v>9058.916666666666</v>
+        <v>9059.083333333334</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7249,21 +8043,24 @@
         <v>9010</v>
       </c>
       <c r="C265" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="D265" t="n">
-        <v>9105</v>
+        <v>9010</v>
       </c>
       <c r="E265" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="F265" t="n">
-        <v>265</v>
+        <v>141.5</v>
       </c>
       <c r="G265" t="n">
-        <v>9058.666666666666</v>
+        <v>9058.916666666666</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7272,24 +8069,27 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>9000</v>
+        <v>9010</v>
       </c>
       <c r="C266" t="n">
         <v>9000</v>
       </c>
       <c r="D266" t="n">
+        <v>9105</v>
+      </c>
+      <c r="E266" t="n">
         <v>9000</v>
       </c>
-      <c r="E266" t="n">
-        <v>8995</v>
-      </c>
       <c r="F266" t="n">
-        <v>195.5</v>
+        <v>265</v>
       </c>
       <c r="G266" t="n">
-        <v>9058.416666666666</v>
+        <v>9058.666666666666</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7304,18 +8104,21 @@
         <v>9000</v>
       </c>
       <c r="D267" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="E267" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="F267" t="n">
-        <v>348.55002745</v>
+        <v>195.5</v>
       </c>
       <c r="G267" t="n">
-        <v>9058.166666666666</v>
+        <v>9058.416666666666</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7327,21 +8130,24 @@
         <v>9000</v>
       </c>
       <c r="C268" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="D268" t="n">
-        <v>9005</v>
+        <v>9105</v>
       </c>
       <c r="E268" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="F268" t="n">
-        <v>354</v>
+        <v>348.55002745</v>
       </c>
       <c r="G268" t="n">
-        <v>9057.833333333334</v>
+        <v>9058.166666666666</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7353,21 +8159,24 @@
         <v>9000</v>
       </c>
       <c r="C269" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="D269" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="E269" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="F269" t="n">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="G269" t="n">
-        <v>9057.583333333334</v>
+        <v>9057.833333333334</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7388,12 +8197,15 @@
         <v>9000</v>
       </c>
       <c r="F270" t="n">
-        <v>105.5</v>
+        <v>98</v>
       </c>
       <c r="G270" t="n">
-        <v>9056.333333333334</v>
+        <v>9057.583333333334</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7402,24 +8214,27 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>9125</v>
+        <v>9000</v>
       </c>
       <c r="C271" t="n">
-        <v>9125</v>
+        <v>9000</v>
       </c>
       <c r="D271" t="n">
-        <v>9125</v>
+        <v>9000</v>
       </c>
       <c r="E271" t="n">
-        <v>9125</v>
+        <v>9000</v>
       </c>
       <c r="F271" t="n">
-        <v>0.50005479</v>
+        <v>105.5</v>
       </c>
       <c r="G271" t="n">
-        <v>9057.083333333334</v>
+        <v>9056.333333333334</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7428,24 +8243,27 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>9115</v>
+        <v>9125</v>
       </c>
       <c r="C272" t="n">
-        <v>9115</v>
+        <v>9125</v>
       </c>
       <c r="D272" t="n">
-        <v>9115</v>
+        <v>9125</v>
       </c>
       <c r="E272" t="n">
-        <v>9115</v>
+        <v>9125</v>
       </c>
       <c r="F272" t="n">
-        <v>67</v>
+        <v>0.50005479</v>
       </c>
       <c r="G272" t="n">
-        <v>9058.666666666666</v>
+        <v>9057.083333333334</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>9100</v>
+        <v>9115</v>
       </c>
       <c r="C273" t="n">
-        <v>9100</v>
+        <v>9115</v>
       </c>
       <c r="D273" t="n">
-        <v>9100</v>
+        <v>9115</v>
       </c>
       <c r="E273" t="n">
-        <v>9100</v>
+        <v>9115</v>
       </c>
       <c r="F273" t="n">
-        <v>0.6</v>
+        <v>67</v>
       </c>
       <c r="G273" t="n">
-        <v>9060</v>
+        <v>9058.666666666666</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7480,24 +8301,27 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>9065</v>
+        <v>9100</v>
       </c>
       <c r="C274" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="D274" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="E274" t="n">
-        <v>9065</v>
+        <v>9100</v>
       </c>
       <c r="F274" t="n">
-        <v>50.9152</v>
+        <v>0.6</v>
       </c>
       <c r="G274" t="n">
-        <v>9061</v>
+        <v>9060</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7506,24 +8330,27 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>9020</v>
+        <v>9065</v>
       </c>
       <c r="C275" t="n">
-        <v>9020</v>
+        <v>9085</v>
       </c>
       <c r="D275" t="n">
-        <v>9020</v>
+        <v>9085</v>
       </c>
       <c r="E275" t="n">
-        <v>9020</v>
+        <v>9065</v>
       </c>
       <c r="F275" t="n">
-        <v>35</v>
+        <v>50.9152</v>
       </c>
       <c r="G275" t="n">
-        <v>9060.916666666666</v>
+        <v>9061</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,24 +8359,27 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="C276" t="n">
         <v>9020</v>
       </c>
       <c r="D276" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="E276" t="n">
         <v>9020</v>
       </c>
       <c r="F276" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="G276" t="n">
-        <v>9060.833333333334</v>
+        <v>9060.916666666666</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7561,541 +8391,24 @@
         <v>9025</v>
       </c>
       <c r="C277" t="n">
-        <v>9085</v>
+        <v>9020</v>
       </c>
       <c r="D277" t="n">
-        <v>9095</v>
+        <v>9025</v>
       </c>
       <c r="E277" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="F277" t="n">
-        <v>103.9525</v>
+        <v>35.5</v>
       </c>
       <c r="G277" t="n">
-        <v>9061.833333333334</v>
+        <v>9060.833333333334</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>9105</v>
-      </c>
-      <c r="C278" t="n">
-        <v>9130</v>
-      </c>
-      <c r="D278" t="n">
-        <v>9130</v>
-      </c>
-      <c r="E278" t="n">
-        <v>9105</v>
-      </c>
-      <c r="F278" t="n">
-        <v>22.966</v>
-      </c>
-      <c r="G278" t="n">
-        <v>9063.583333333334</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>9030</v>
-      </c>
-      <c r="C279" t="n">
-        <v>9025</v>
-      </c>
-      <c r="D279" t="n">
-        <v>9030</v>
-      </c>
-      <c r="E279" t="n">
-        <v>9025</v>
-      </c>
-      <c r="F279" t="n">
-        <v>68</v>
-      </c>
-      <c r="G279" t="n">
-        <v>9064.25</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>9130</v>
-      </c>
-      <c r="C280" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D280" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E280" t="n">
-        <v>9130</v>
-      </c>
-      <c r="F280" t="n">
-        <v>217.6171</v>
-      </c>
-      <c r="G280" t="n">
-        <v>9065.916666666666</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>9165</v>
-      </c>
-      <c r="C281" t="n">
-        <v>9170</v>
-      </c>
-      <c r="D281" t="n">
-        <v>9170</v>
-      </c>
-      <c r="E281" t="n">
-        <v>9165</v>
-      </c>
-      <c r="F281" t="n">
-        <v>9.99951755</v>
-      </c>
-      <c r="G281" t="n">
-        <v>9067.416666666666</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>9040</v>
-      </c>
-      <c r="C282" t="n">
-        <v>9040</v>
-      </c>
-      <c r="D282" t="n">
-        <v>9040</v>
-      </c>
-      <c r="E282" t="n">
-        <v>9040</v>
-      </c>
-      <c r="F282" t="n">
-        <v>0.2057</v>
-      </c>
-      <c r="G282" t="n">
-        <v>9066.75</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>9075</v>
-      </c>
-      <c r="C283" t="n">
-        <v>9065</v>
-      </c>
-      <c r="D283" t="n">
-        <v>9075</v>
-      </c>
-      <c r="E283" t="n">
-        <v>9065</v>
-      </c>
-      <c r="F283" t="n">
-        <v>203.8799</v>
-      </c>
-      <c r="G283" t="n">
-        <v>9067.083333333334</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>9050</v>
-      </c>
-      <c r="C284" t="n">
-        <v>9030</v>
-      </c>
-      <c r="D284" t="n">
-        <v>9050</v>
-      </c>
-      <c r="E284" t="n">
-        <v>9030</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1106.7958</v>
-      </c>
-      <c r="G284" t="n">
-        <v>9067.583333333334</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>9045</v>
-      </c>
-      <c r="C285" t="n">
-        <v>9110</v>
-      </c>
-      <c r="D285" t="n">
-        <v>9110</v>
-      </c>
-      <c r="E285" t="n">
-        <v>9045</v>
-      </c>
-      <c r="F285" t="n">
-        <v>1.09989527</v>
-      </c>
-      <c r="G285" t="n">
-        <v>9068.666666666666</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>9085</v>
-      </c>
-      <c r="C286" t="n">
-        <v>9065</v>
-      </c>
-      <c r="D286" t="n">
-        <v>9085</v>
-      </c>
-      <c r="E286" t="n">
-        <v>9065</v>
-      </c>
-      <c r="F286" t="n">
-        <v>59.4293</v>
-      </c>
-      <c r="G286" t="n">
-        <v>9069.833333333334</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>9140</v>
-      </c>
-      <c r="C287" t="n">
-        <v>9140</v>
-      </c>
-      <c r="D287" t="n">
-        <v>9140</v>
-      </c>
-      <c r="E287" t="n">
-        <v>9140</v>
-      </c>
-      <c r="F287" t="n">
-        <v>25.5689</v>
-      </c>
-      <c r="G287" t="n">
-        <v>9071.833333333334</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>9115</v>
-      </c>
-      <c r="C288" t="n">
-        <v>9115</v>
-      </c>
-      <c r="D288" t="n">
-        <v>9115</v>
-      </c>
-      <c r="E288" t="n">
-        <v>9115</v>
-      </c>
-      <c r="F288" t="n">
-        <v>10</v>
-      </c>
-      <c r="G288" t="n">
-        <v>9070.75</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>9120</v>
-      </c>
-      <c r="C289" t="n">
-        <v>9120</v>
-      </c>
-      <c r="D289" t="n">
-        <v>9120</v>
-      </c>
-      <c r="E289" t="n">
-        <v>9120</v>
-      </c>
-      <c r="F289" t="n">
-        <v>43.9404</v>
-      </c>
-      <c r="G289" t="n">
-        <v>9072.75</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>9080</v>
-      </c>
-      <c r="C290" t="n">
-        <v>9055</v>
-      </c>
-      <c r="D290" t="n">
-        <v>9080</v>
-      </c>
-      <c r="E290" t="n">
-        <v>9055</v>
-      </c>
-      <c r="F290" t="n">
-        <v>97.4927</v>
-      </c>
-      <c r="G290" t="n">
-        <v>9073.583333333334</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>9055</v>
-      </c>
-      <c r="C291" t="n">
-        <v>9045</v>
-      </c>
-      <c r="D291" t="n">
-        <v>9055</v>
-      </c>
-      <c r="E291" t="n">
-        <v>9045</v>
-      </c>
-      <c r="F291" t="n">
-        <v>71.239</v>
-      </c>
-      <c r="G291" t="n">
-        <v>9074.333333333334</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>9045</v>
-      </c>
-      <c r="C292" t="n">
-        <v>9045</v>
-      </c>
-      <c r="D292" t="n">
-        <v>9045</v>
-      </c>
-      <c r="E292" t="n">
-        <v>9045</v>
-      </c>
-      <c r="F292" t="n">
-        <v>15.9144</v>
-      </c>
-      <c r="G292" t="n">
-        <v>9073.333333333334</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>9040</v>
-      </c>
-      <c r="C293" t="n">
-        <v>9040</v>
-      </c>
-      <c r="D293" t="n">
-        <v>9040</v>
-      </c>
-      <c r="E293" t="n">
-        <v>9040</v>
-      </c>
-      <c r="F293" t="n">
-        <v>11.2106</v>
-      </c>
-      <c r="G293" t="n">
-        <v>9073.166666666666</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>9040</v>
-      </c>
-      <c r="C294" t="n">
-        <v>9125</v>
-      </c>
-      <c r="D294" t="n">
-        <v>9125</v>
-      </c>
-      <c r="E294" t="n">
-        <v>9040</v>
-      </c>
-      <c r="F294" t="n">
-        <v>20.02701282</v>
-      </c>
-      <c r="G294" t="n">
-        <v>9075.166666666666</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>9090</v>
-      </c>
-      <c r="C295" t="n">
-        <v>9090</v>
-      </c>
-      <c r="D295" t="n">
-        <v>9090</v>
-      </c>
-      <c r="E295" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F295" t="n">
-        <v>330.7646</v>
-      </c>
-      <c r="G295" t="n">
-        <v>9074.166666666666</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>9120</v>
-      </c>
-      <c r="C296" t="n">
-        <v>9045</v>
-      </c>
-      <c r="D296" t="n">
-        <v>9120</v>
-      </c>
-      <c r="E296" t="n">
-        <v>9045</v>
-      </c>
-      <c r="F296" t="n">
-        <v>0.3112</v>
-      </c>
-      <c r="G296" t="n">
-        <v>9074.083333333334</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>9120</v>
-      </c>
-      <c r="C297" t="n">
-        <v>9070</v>
-      </c>
-      <c r="D297" t="n">
-        <v>9120</v>
-      </c>
-      <c r="E297" t="n">
-        <v>9070</v>
-      </c>
-      <c r="F297" t="n">
-        <v>81.81999999999999</v>
-      </c>
-      <c r="G297" t="n">
-        <v>9074.666666666666</v>
-      </c>
-      <c r="H297" t="n">
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
